--- a/src/test/java/resources/ES-2Sem-2021-Grupo24_metrics.xlsx
+++ b/src/test/java/resources/ES-2Sem-2021-Grupo24_metrics.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="207">
   <si>
     <t>MethodID</t>
   </si>
@@ -47,313 +47,499 @@
     <t>is_Long_Method</t>
   </si>
   <si>
+    <t>codeSmells</t>
+  </si>
+  <si>
+    <t>CodeSmellsComparator</t>
+  </si>
+  <si>
+    <t>setConfusionTableValues()</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>setValues(ArrayList&lt;Quadruple&lt;String, String, String, String&gt;&gt;)</t>
+  </si>
+  <si>
+    <t>compareValues(String, String, int[])</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>getExcelOriginal()</t>
+  </si>
+  <si>
+    <t>getExcelToCompare()</t>
+  </si>
+  <si>
+    <t>getTruePositiveNumberIsGodClass()</t>
+  </si>
+  <si>
+    <t>getTruePositiveNumberIsLongMethod()</t>
+  </si>
+  <si>
+    <t>getTrueNegativeNumberIsGodClass()</t>
+  </si>
+  <si>
+    <t>getTrueNegativeNumberIsLongMethod()</t>
+  </si>
+  <si>
+    <t>getFalsePositiveNumberIsGodClass()</t>
+  </si>
+  <si>
+    <t>getFalsePositiveNumberIsLongMethod()</t>
+  </si>
+  <si>
+    <t>getFalseNegativeNumberIsGodClass()</t>
+  </si>
+  <si>
+    <t>getFalseNegativeNumberIsLongMethod()</t>
+  </si>
+  <si>
+    <t>getInvalidComparisonsNumberIsGodClass()</t>
+  </si>
+  <si>
+    <t>getInvalidComparisonsNumberIsLongMethod()</t>
+  </si>
+  <si>
+    <t>getOriginalLines()</t>
+  </si>
+  <si>
+    <t>getToCompareLines()</t>
+  </si>
+  <si>
+    <t>main(String[])</t>
+  </si>
+  <si>
+    <t>CodeSmellsComparator(File, File)</t>
+  </si>
+  <si>
+    <t>CodeSmellsCreator</t>
+  </si>
+  <si>
+    <t>createCodeSmellsXlsxFile(File)</t>
+  </si>
+  <si>
+    <t>addCodeSmellsToXlsx(File)</t>
+  </si>
+  <si>
+    <t>createHeaderCodeSmellsXlsx(XSSFRow)</t>
+  </si>
+  <si>
+    <t>addRowCodeSmellsXlsx(XSSFRow, MethodMetrics)</t>
+  </si>
+  <si>
+    <t>CodeSmellsCreator(MetricExtractor, String, List&lt;Rule&gt;, List&lt;Rule&gt;)</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>GuiController</t>
+  </si>
+  <si>
+    <t>getRegras()</t>
+  </si>
+  <si>
+    <t>initialize()</t>
+  </si>
+  <si>
+    <t>openProject()</t>
+  </si>
+  <si>
+    <t>setExcelOriginal(File)</t>
+  </si>
+  <si>
+    <t>setExcelToCompare(File)</t>
+  </si>
+  <si>
+    <t>chooseExcelToCompare()</t>
+  </si>
+  <si>
+    <t>chooseExcelOriginal()</t>
+  </si>
+  <si>
+    <t>getFile(String)</t>
+  </si>
+  <si>
+    <t>compareExcels()</t>
+  </si>
+  <si>
+    <t>setLabels(CodeSmellsComparator)</t>
+  </si>
+  <si>
+    <t>setQualityMeasuresIsGodClass()</t>
+  </si>
+  <si>
+    <t>setQualityMeasuresIsLongMethod()</t>
+  </si>
+  <si>
+    <t>createAlert(double, double, double, double)</t>
+  </si>
+  <si>
+    <t>throwErroInesperado(Exception)</t>
+  </si>
+  <si>
+    <t>createCodeSmell()</t>
+  </si>
+  <si>
+    <t>addRuleToHistory()</t>
+  </si>
+  <si>
+    <t>removeRuleFromHistory()</t>
+  </si>
+  <si>
+    <t>changeRuleFromHistory()</t>
+  </si>
+  <si>
+    <t>finishChangeRuleFromHistory()</t>
+  </si>
+  <si>
+    <t>getRule()</t>
+  </si>
+  <si>
+    <t>clearGUIElements()</t>
+  </si>
+  <si>
+    <t>updateGUIElements(String)</t>
+  </si>
+  <si>
+    <t>updateGUIElements(File)</t>
+  </si>
+  <si>
+    <t>writeCharacteristicsGUI(ArrayList&lt;String&gt;)</t>
+  </si>
+  <si>
+    <t>writeCodeSmellsGUI(ArrayList&lt;String&gt;)</t>
+  </si>
+  <si>
+    <t>showInformationMessage(String, String, Alert.AlertType)</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>start(Stage)</t>
+  </si>
+  <si>
     <t>metrics</t>
   </si>
   <si>
+    <t>MethodMetrics</t>
+  </si>
+  <si>
+    <t>getClassOfMethod()</t>
+  </si>
+  <si>
+    <t>getId()</t>
+  </si>
+  <si>
+    <t>getPackageOfMethod()</t>
+  </si>
+  <si>
+    <t>getMethod()</t>
+  </si>
+  <si>
+    <t>setMetric(Metric, int)</t>
+  </si>
+  <si>
+    <t>getMetric(Metric)</t>
+  </si>
+  <si>
+    <t>verifyRuleset(List&lt;Rule&gt;)</t>
+  </si>
+  <si>
+    <t>getNom_class()</t>
+  </si>
+  <si>
+    <t>setNom_class(int)</t>
+  </si>
+  <si>
+    <t>getLoc_class()</t>
+  </si>
+  <si>
+    <t>setLoc_class(int)</t>
+  </si>
+  <si>
+    <t>getWmc_class()</t>
+  </si>
+  <si>
+    <t>setWmc_class(int)</t>
+  </si>
+  <si>
+    <t>getLoc_method()</t>
+  </si>
+  <si>
+    <t>setLoc_method(int)</t>
+  </si>
+  <si>
+    <t>getCyclo_method()</t>
+  </si>
+  <si>
+    <t>setCyclo_method(int)</t>
+  </si>
+  <si>
+    <t>MethodMetrics(int, PackageDeclaration, ClassOrInterfaceDeclaration, CallableDeclaration)</t>
+  </si>
+  <si>
     <t>MetricExtractor</t>
   </si>
   <si>
-    <t>public Path getSrcpath()</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>public void setSrcpath(Path srcpath)</t>
-  </si>
-  <si>
-    <t>public List&lt;MethodMetrics&gt; ExtractMetrics() throws IOException</t>
-  </si>
-  <si>
-    <t>public void joinMetrics(List&lt;MethodMetrics&gt; methodMetrics, List&lt;Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, MethodDeclaration, Integer&gt;&gt; metrics, Metric metricEnum)</t>
-  </si>
-  <si>
-    <t>public static List&lt;CompilationUnit&gt; CreateCompilationUnits(Path dirPath) throws IOException</t>
-  </si>
-  <si>
-    <t>public List&lt;CompilationUnit&gt; CreateCompilationUnits() throws IOException</t>
-  </si>
-  <si>
-    <t>private static PackageDeclaration ConvertOptionalToActual(Optional&lt;PackageDeclaration&gt; packageD)</t>
-  </si>
-  <si>
-    <t>private static void PrintQuad(Iterable&lt;? extends Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, MethodDeclaration, Integer&gt;&gt; quadruples)</t>
-  </si>
-  <si>
-    <t>public List&lt;Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, MethodDeclaration, Integer&gt;&gt; NOM_class(List&lt;CompilationUnit&gt; compilationUnits)</t>
-  </si>
-  <si>
-    <t>public List&lt;Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, MethodDeclaration, Integer&gt;&gt; CYCLO_method(List&lt;CompilationUnit&gt; compilationUnits)</t>
-  </si>
-  <si>
-    <t>public List&lt;Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, MethodDeclaration, Integer&gt;&gt; WMC_class(List&lt;CompilationUnit&gt; compilationUnits)</t>
-  </si>
-  <si>
-    <t>public List&lt;Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, MethodDeclaration, Integer&gt;&gt; LOC_method(List&lt;CompilationUnit&gt; compilationUnits)</t>
-  </si>
-  <si>
-    <t>public List&lt;Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, MethodDeclaration, Integer&gt;&gt; LOC_class(List&lt;CompilationUnit&gt; compilationUnits)</t>
-  </si>
-  <si>
-    <t>private int countLines(String s)</t>
-  </si>
-  <si>
-    <t>MethodMetrics</t>
-  </si>
-  <si>
-    <t>public ClassOrInterfaceDeclaration getClassOfMethod()</t>
-  </si>
-  <si>
-    <t>public int getId()</t>
-  </si>
-  <si>
-    <t>public PackageDeclaration getPackageOfMethod()</t>
-  </si>
-  <si>
-    <t>public MethodDeclaration getMethod()</t>
-  </si>
-  <si>
-    <t>public void setMetric(Metric metric, int value) throws NoSuchElementException</t>
-  </si>
-  <si>
-    <t>public int getMetric(Metric metric) throws NoSuchElementException</t>
-  </si>
-  <si>
-    <t>public String verifyRuleset(List&lt;Rule&gt; rules)</t>
-  </si>
-  <si>
-    <t>private int getNom_class()</t>
-  </si>
-  <si>
-    <t>private void setNom_class(int nom_class)</t>
-  </si>
-  <si>
-    <t>private int getLoc_class()</t>
-  </si>
-  <si>
-    <t>private void setLoc_class(int loc_class)</t>
-  </si>
-  <si>
-    <t>private int getWmc_class()</t>
-  </si>
-  <si>
-    <t>private void setWmc_class(int wmc_class)</t>
-  </si>
-  <si>
-    <t>private int getLoc_method()</t>
-  </si>
-  <si>
-    <t>private void setLoc_method(int loc_method)</t>
-  </si>
-  <si>
-    <t>private int getCyclo_method()</t>
-  </si>
-  <si>
-    <t>private void setCyclo_method(int cyclo_method)</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>Main</t>
-  </si>
-  <si>
-    <t>public void start(Stage primaryStage) throws Exception</t>
-  </si>
-  <si>
-    <t>public static void main(String[] args)</t>
+    <t>getSrcpath()</t>
+  </si>
+  <si>
+    <t>setSrcpath(Path)</t>
+  </si>
+  <si>
+    <t>ExtractMetrics()</t>
+  </si>
+  <si>
+    <t>joinMetrics(List&lt;MethodMetrics&gt;, List&lt;Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;&gt;, Metric)</t>
+  </si>
+  <si>
+    <t>CreateCompilationUnits(Path)</t>
+  </si>
+  <si>
+    <t>CreateCompilationUnits()</t>
+  </si>
+  <si>
+    <t>ConvertOptionalToActual(Optional&lt;PackageDeclaration&gt;)</t>
+  </si>
+  <si>
+    <t>PrettyPrintQuad(Iterable&lt;? extends Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;&gt;)</t>
+  </si>
+  <si>
+    <t>PrettyPrintQuad(Quadruple&lt;PackageDeclaration, ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;)</t>
+  </si>
+  <si>
+    <t>ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;&gt; NOM_class(List&lt;CompilationUnit&gt;)</t>
+  </si>
+  <si>
+    <t>ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;&gt; CYCLO_method(List&lt;CompilationUnit&gt;)</t>
+  </si>
+  <si>
+    <t>ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt; calculateCycloMethodAUX(CompilationUnit, ClassOrInterfaceDeclaration, CallableDeclaration)</t>
+  </si>
+  <si>
+    <t>getComplexity(CallableDeclaration, int, Class&lt;T&gt;)</t>
+  </si>
+  <si>
+    <t>ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;&gt; WMC_class(List&lt;CompilationUnit&gt;)</t>
+  </si>
+  <si>
+    <t>calculateClassCOplecityAUX(int, CallableDeclaration)</t>
+  </si>
+  <si>
+    <t>ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;&gt; LOC_method(List&lt;CompilationUnit&gt;)</t>
+  </si>
+  <si>
+    <t>ClassOrInterfaceDeclaration, CallableDeclaration, Integer&gt;&gt; LOC_class(List&lt;CompilationUnit&gt;)</t>
+  </si>
+  <si>
+    <t>calculateLOC_CLASSAUX(int, CallableDeclaration)</t>
+  </si>
+  <si>
+    <t>countLines(String)</t>
+  </si>
+  <si>
+    <t>MetricExtractor()</t>
+  </si>
+  <si>
+    <t>MetricExtractor(Path)</t>
   </si>
   <si>
     <t>readers</t>
   </si>
   <si>
-    <t>JavaReader</t>
-  </si>
-  <si>
-    <t>public void read()</t>
-  </si>
-  <si>
     <t>ExelReader</t>
   </si>
   <si>
-    <t>public ArrayList&lt;String&gt; read()</t>
-  </si>
-  <si>
-    <t>CodeSmells</t>
-  </si>
-  <si>
-    <t>public void createCodeSmellsXlsxFile(File dir) throws IOException</t>
-  </si>
-  <si>
-    <t>public void addCodeSmellsToXlsx(File dir) throws IOException</t>
-  </si>
-  <si>
-    <t>private void createHeaderCodeSmellsXlsx(XSSFRow rowhead)</t>
-  </si>
-  <si>
-    <t>private void addRowCodeSmellsXlsx(XSSFRow row, MethodMetrics method)</t>
+    <t>read(File)</t>
+  </si>
+  <si>
+    <t>rules</t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>getRule1()</t>
+  </si>
+  <si>
+    <t>getRule2()</t>
+  </si>
+  <si>
+    <t>getOperation()</t>
+  </si>
+  <si>
+    <t>getSmell()</t>
+  </si>
+  <si>
+    <t>passesRule(MethodMetrics)</t>
+  </si>
+  <si>
+    <t>Operation(int, Operation, int)</t>
+  </si>
+  <si>
+    <t>createRuleFile(String)</t>
+  </si>
+  <si>
+    <t>serializeRule(ArrayList&lt;Rule&gt;)</t>
+  </si>
+  <si>
+    <t>serializeRule(ArrayList&lt;Rule&gt;, String)</t>
+  </si>
+  <si>
+    <t>deserializedRule()</t>
+  </si>
+  <si>
+    <t>deserializedRule(String)</t>
+  </si>
+  <si>
+    <t>deleteRule(Rule)</t>
+  </si>
+  <si>
+    <t>deleteRule(Rule, String)</t>
+  </si>
+  <si>
+    <t>changeRule(Rule, Rule)</t>
+  </si>
+  <si>
+    <t>changeRule(Rule, Rule, String)</t>
+  </si>
+  <si>
+    <t>doesRuleExist(Rule)</t>
+  </si>
+  <si>
+    <t>doesRuleExist(Rule, String)</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>Rule(Metric, Operation, Integer, Metric, Operation, Integer, LogicOp, Smell)</t>
+  </si>
+  <si>
+    <t>SubRule</t>
+  </si>
+  <si>
+    <t>getMetric()</t>
+  </si>
+  <si>
+    <t>getValue()</t>
+  </si>
+  <si>
+    <t>passesSubRule(MethodMetrics)</t>
+  </si>
+  <si>
+    <t>SubRule(Metric, Operation, Integer)</t>
   </si>
   <si>
     <t>util</t>
   </si>
   <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>calculateTotal(double, double, double, double)</t>
+  </si>
+  <si>
+    <t>calculatePrecision(double, double)</t>
+  </si>
+  <si>
+    <t>calculateRecall(double, double)</t>
+  </si>
+  <si>
+    <t>calculateError(double, double, double, double)</t>
+  </si>
+  <si>
+    <t>calculateAccuracy(double, double, double, double)</t>
+  </si>
+  <si>
+    <t>evaluateMeasure(Double)</t>
+  </si>
+  <si>
+    <t>NumberTextField</t>
+  </si>
+  <si>
+    <t>replaceText(int, int, String)</t>
+  </si>
+  <si>
+    <t>replaceSelection(String)</t>
+  </si>
+  <si>
+    <t>validate(String)</t>
+  </si>
+  <si>
+    <t>NumberTextField()</t>
+  </si>
+  <si>
     <t>Pair</t>
   </si>
   <si>
-    <t>public A getA()</t>
-  </si>
-  <si>
-    <t>public B getB()</t>
-  </si>
-  <si>
-    <t>public void setA(A a)</t>
-  </si>
-  <si>
-    <t>public void setB(B b)</t>
-  </si>
-  <si>
-    <t>NumberTextField</t>
-  </si>
-  <si>
-    <t>public void replaceText(int i, int i1, String string)</t>
-  </si>
-  <si>
-    <t>public void replaceSelection(String string)</t>
+    <t>getA()</t>
+  </si>
+  <si>
+    <t>getB()</t>
+  </si>
+  <si>
+    <t>setA(A)</t>
+  </si>
+  <si>
+    <t>setB(B)</t>
+  </si>
+  <si>
+    <t>Pair(A, B)</t>
   </si>
   <si>
     <t>Quadruple</t>
   </si>
   <si>
-    <t>public C getC()</t>
-  </si>
-  <si>
-    <t>public void setC(C c)</t>
-  </si>
-  <si>
-    <t>public D getD()</t>
-  </si>
-  <si>
-    <t>public void setD(D d)</t>
-  </si>
-  <si>
-    <t>rules</t>
-  </si>
-  <si>
-    <t>Rule</t>
-  </si>
-  <si>
-    <t>public SubRule getRule1()</t>
-  </si>
-  <si>
-    <t>public SubRule getRule2()</t>
-  </si>
-  <si>
-    <t>public LogicOp getOperation()</t>
-  </si>
-  <si>
-    <t>public Smell getSmell()</t>
-  </si>
-  <si>
-    <t>public Metric getMetric(SubRule sr)</t>
-  </si>
-  <si>
-    <t>public Operation getMetricOperation(SubRule sr)</t>
-  </si>
-  <si>
-    <t>public Integer getMetricValue(SubRule sr)</t>
-  </si>
-  <si>
-    <t>public boolean passesRule(MethodMetrics method) throws NoSuchElementException</t>
-  </si>
-  <si>
-    <t>private static boolean Operation(int value1, Operation op, int value2) throws NoSuchElementException</t>
-  </si>
-  <si>
-    <t>public static void serializeRule(ArrayList&lt;Rule&gt; rules) throws IOException</t>
-  </si>
-  <si>
-    <t>public static ArrayList&lt;Rule&gt; deserializedRule() throws IOException, ClassNotFoundException</t>
-  </si>
-  <si>
-    <t>public static void deleteRule(Rule r) throws IOException, ClassNotFoundException</t>
-  </si>
-  <si>
-    <t>public String toString()</t>
-  </si>
-  <si>
-    <t>SubRule</t>
-  </si>
-  <si>
-    <t>public Metric getMetric()</t>
-  </si>
-  <si>
-    <t>public Operation getOperation()</t>
-  </si>
-  <si>
-    <t>public Integer getValue()</t>
-  </si>
-  <si>
-    <t>private boolean passesSubRule(MethodMetrics method)</t>
-  </si>
-  <si>
-    <t>Controller</t>
-  </si>
-  <si>
-    <t>public ObservableList&lt;Rule&gt; getRegras()</t>
-  </si>
-  <si>
-    <t>private void initialize()</t>
-  </si>
-  <si>
-    <t>private void openProject()</t>
-  </si>
-  <si>
-    <t>private void createCodeSmell() throws IOException</t>
-  </si>
-  <si>
-    <t>private void addRuleToHistory() throws IOException, ClassNotFoundException</t>
-  </si>
-  <si>
-    <t>private void removeRuleFromHistory() throws IOException, ClassNotFoundException</t>
-  </si>
-  <si>
-    <t>private void clearGUIElements()</t>
-  </si>
-  <si>
-    <t>private void updateGUIElements(String pathCodeSmell)</t>
-  </si>
-  <si>
-    <t>private void writeCharacteristicsGUI(ArrayList&lt;String&gt; lines)</t>
-  </si>
-  <si>
-    <t>private void writeCodeSmellsGUI(ArrayList&lt;String&gt; lines)</t>
-  </si>
-  <si>
-    <t>public static void showInformationMessage(String title, String content, Alert.AlertType alertType)</t>
+    <t>getC()</t>
+  </si>
+  <si>
+    <t>setC(C)</t>
+  </si>
+  <si>
+    <t>getD()</t>
+  </si>
+  <si>
+    <t>setD(D)</t>
+  </si>
+  <si>
+    <t>Quadruple(A, B, C, D)</t>
+  </si>
+  <si>
+    <t>CodeSmellsComparatorTest</t>
+  </si>
+  <si>
+    <t>setUpBeforeClass()</t>
   </si>
   <si>
     <t>MetricExtractorTest</t>
   </si>
   <si>
-    <t xml:space="preserve"> static void setUpBeforeClass() throws IOException</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> void setUp()</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> void testNom_Class() throws IOException</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> void testCYCLO_method() throws IOException</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> void testLOC_class() throws IOException</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> void testLOC_method() throws IOException</t>
+    <t>setUp()</t>
+  </si>
+  <si>
+    <t>testNom_Class()</t>
+  </si>
+  <si>
+    <t>testCYCLO_method()</t>
+  </si>
+  <si>
+    <t>testLOC_class()</t>
+  </si>
+  <si>
+    <t>testLOC_method()</t>
+  </si>
+  <si>
+    <t>ExelReaderTest</t>
+  </si>
+  <si>
+    <t>readTest()</t>
   </si>
   <si>
     <t>resources</t>
@@ -362,16 +548,91 @@
     <t>QuickSort</t>
   </si>
   <si>
-    <t>private int partition(int[] array, int low, int high)</t>
-  </si>
-  <si>
-    <t>private void quickSort(int[] array, int low, int high)</t>
+    <t>partition(int[], int, int)</t>
+  </si>
+  <si>
+    <t>quickSort(int[], int, int)</t>
   </si>
   <si>
     <t>RuleTest</t>
   </si>
   <si>
-    <t xml:space="preserve"> void passesRuleTest() throws IllegalStateException</t>
+    <t>passesRuleTest()</t>
+  </si>
+  <si>
+    <t>getOperationTest()</t>
+  </si>
+  <si>
+    <t>getSmellTest()</t>
+  </si>
+  <si>
+    <t>subRuleGetMetricTest()</t>
+  </si>
+  <si>
+    <t>subRuleGetOperationTest()</t>
+  </si>
+  <si>
+    <t>subRuleGetValueTest()</t>
+  </si>
+  <si>
+    <t>toStringTest()</t>
+  </si>
+  <si>
+    <t>serializationRuleTest()</t>
+  </si>
+  <si>
+    <t>serializationRuleTestForThrows()</t>
+  </si>
+  <si>
+    <t>createRuleFileTest()</t>
+  </si>
+  <si>
+    <t>deleteRuleTest()</t>
+  </si>
+  <si>
+    <t>changeRuleTest()</t>
+  </si>
+  <si>
+    <t>MathTest</t>
+  </si>
+  <si>
+    <t>testCalculateTotal()</t>
+  </si>
+  <si>
+    <t>testCalculatePrecision()</t>
+  </si>
+  <si>
+    <t>testCalculateRecall()</t>
+  </si>
+  <si>
+    <t>testCalculateError()</t>
+  </si>
+  <si>
+    <t>testCalculateAccuracy()</t>
+  </si>
+  <si>
+    <t>testEvaluateMeasure()</t>
+  </si>
+  <si>
+    <t>PairTest</t>
+  </si>
+  <si>
+    <t>setA()</t>
+  </si>
+  <si>
+    <t>setB()</t>
+  </si>
+  <si>
+    <t>QuadrupleTest</t>
+  </si>
+  <si>
+    <t>setC()</t>
+  </si>
+  <si>
+    <t>setD()</t>
+  </si>
+  <si>
+    <t>testToString()</t>
   </si>
 </sst>
 </file>
@@ -416,7 +677,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K189"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -471,25 +732,25 @@
         <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.0</v>
+        <v>29.0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -503,28 +764,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G3" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -538,28 +799,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K4" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>355.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>43.0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +837,25 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G5" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -611,25 +872,25 @@
         <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F6" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G6" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="J6" t="n">
         <v>0.0</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -646,13 +907,13 @@
         <v>20</v>
       </c>
       <c r="E7" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G7" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
@@ -664,7 +925,7 @@
         <v>0.0</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -681,25 +942,25 @@
         <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G8" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -716,25 +977,25 @@
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F9" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G9" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -751,25 +1012,25 @@
         <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G10" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -786,25 +1047,25 @@
         <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F11" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G11" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>39.0</v>
+        <v>3.0</v>
       </c>
       <c r="J11" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -821,25 +1082,25 @@
         <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F12" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G12" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>41.0</v>
+        <v>3.0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="K12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -856,25 +1117,25 @@
         <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F13" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G13" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13" t="n">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -891,25 +1152,25 @@
         <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F14" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G14" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -926,25 +1187,25 @@
         <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F15" t="n">
-        <v>355.0</v>
+        <v>118.0</v>
       </c>
       <c r="G15" t="n">
-        <v>43.0</v>
+        <v>13.0</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -955,19 +1216,19 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
       <c r="E16" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F16" t="n">
-        <v>148.0</v>
+        <v>118.0</v>
       </c>
       <c r="G16" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -979,7 +1240,7 @@
         <v>0.0</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -990,19 +1251,19 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F17" t="n">
-        <v>148.0</v>
+        <v>118.0</v>
       </c>
       <c r="G17" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
@@ -1014,7 +1275,7 @@
         <v>0.0</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1025,19 +1286,19 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F18" t="n">
-        <v>148.0</v>
+        <v>118.0</v>
       </c>
       <c r="G18" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
@@ -1049,7 +1310,7 @@
         <v>0.0</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1060,31 +1321,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F19" t="n">
-        <v>148.0</v>
+        <v>118.0</v>
       </c>
       <c r="G19" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="J19" t="n">
         <v>0.0</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1095,31 +1356,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F20" t="n">
-        <v>148.0</v>
+        <v>118.0</v>
       </c>
       <c r="G20" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="J20" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1130,31 +1391,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="F21" t="n">
-        <v>148.0</v>
+        <v>58.0</v>
       </c>
       <c r="G21" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>16.0</v>
+        <v>4.0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1165,31 +1426,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
         <v>36</v>
       </c>
       <c r="E22" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="F22" t="n">
-        <v>148.0</v>
+        <v>58.0</v>
       </c>
       <c r="G22" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="J22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1200,31 +1461,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
         <v>37</v>
       </c>
       <c r="E23" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="F23" t="n">
-        <v>148.0</v>
+        <v>58.0</v>
       </c>
       <c r="G23" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="J23" t="n">
         <v>0.0</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -1235,31 +1496,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>38</v>
       </c>
       <c r="E24" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="n">
         <v>17.0</v>
       </c>
-      <c r="F24" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="H24" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.0</v>
-      </c>
       <c r="J24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
@@ -1270,31 +1531,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
       </c>
       <c r="E25" t="n">
-        <v>17.0</v>
+        <v>5.0</v>
       </c>
       <c r="F25" t="n">
-        <v>148.0</v>
+        <v>58.0</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" t="n">
         <v>0.0</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -1302,25 +1563,25 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E26" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="F26" t="n">
-        <v>148.0</v>
+        <v>380.0</v>
       </c>
       <c r="G26" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I26" t="n">
         <v>3.0</v>
@@ -1329,7 +1590,7 @@
         <v>0.0</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
@@ -1337,34 +1598,34 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E27" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="F27" t="n">
-        <v>148.0</v>
+        <v>380.0</v>
       </c>
       <c r="G27" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I27" t="n">
-        <v>3.0</v>
+        <v>31.0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -1372,34 +1633,34 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="F28" t="n">
-        <v>148.0</v>
+        <v>380.0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I28" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -1407,34 +1668,34 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E29" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="F29" t="n">
-        <v>148.0</v>
+        <v>380.0</v>
       </c>
       <c r="G29" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I29" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -1442,34 +1703,34 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="F30" t="n">
-        <v>148.0</v>
+        <v>380.0</v>
       </c>
       <c r="G30" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I30" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J30" t="n">
         <v>0.0</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
@@ -1477,34 +1738,34 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="F31" t="n">
-        <v>148.0</v>
+        <v>380.0</v>
       </c>
       <c r="G31" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I31" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1512,34 +1773,34 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E32" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="F32" t="n">
-        <v>148.0</v>
+        <v>380.0</v>
       </c>
       <c r="G32" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I32" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
       </c>
       <c r="K32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1547,25 +1808,25 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
         <v>49</v>
       </c>
       <c r="E33" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="F33" t="n">
-        <v>21.0</v>
+        <v>380.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I33" t="n">
         <v>7.0</v>
@@ -1574,7 +1835,7 @@
         <v>0.0</v>
       </c>
       <c r="K33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1582,34 +1843,34 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
       <c r="E34" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="F34" t="n">
-        <v>21.0</v>
+        <v>380.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I34" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="J34" t="n">
         <v>0.0</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -1617,34 +1878,34 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
-      </c>
       <c r="E35" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F35" t="n">
-        <v>23.0</v>
+        <v>380.0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I35" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1652,34 +1913,34 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E36" t="n">
-        <v>1.0</v>
+        <v>26.0</v>
       </c>
       <c r="F36" t="n">
-        <v>45.0</v>
+        <v>380.0</v>
       </c>
       <c r="G36" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I36" t="n">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="J36" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -1687,34 +1948,34 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E37" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F37" t="n">
-        <v>161.0</v>
+        <v>380.0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I37" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="J37" t="n">
         <v>0.0</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1722,34 +1983,34 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E38" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F38" t="n">
-        <v>161.0</v>
+        <v>380.0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I38" t="n">
-        <v>18.0</v>
+        <v>34.0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1757,34 +2018,34 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E39" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="n">
         <v>4.0</v>
       </c>
-      <c r="F39" t="n">
-        <v>161.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" t="n">
-        <v>13.0</v>
-      </c>
       <c r="J39" t="n">
         <v>0.0</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1792,34 +2053,34 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="D40" t="s">
-        <v>60</v>
-      </c>
       <c r="E40" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F40" t="n">
-        <v>161.0</v>
+        <v>380.0</v>
       </c>
       <c r="G40" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1.0</v>
       </c>
-      <c r="H40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1827,34 +2088,34 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E41" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F41" t="n">
-        <v>26.0</v>
+        <v>380.0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
@@ -1862,34 +2123,34 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E42" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F42" t="n">
-        <v>26.0</v>
+        <v>380.0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I42" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1897,34 +2158,34 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E43" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F43" t="n">
-        <v>26.0</v>
+        <v>380.0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I43" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="K43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44">
@@ -1932,34 +2193,34 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E44" t="n">
-        <v>4.0</v>
+        <v>26.0</v>
       </c>
       <c r="F44" t="n">
-        <v>26.0</v>
+        <v>380.0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I44" t="n">
-        <v>3.0</v>
+        <v>27.0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -1967,34 +2228,34 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
         <v>61</v>
       </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" t="s">
-        <v>68</v>
-      </c>
       <c r="E45" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" t="n">
-        <v>29.0</v>
+        <v>380.0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I45" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="J45" t="n">
         <v>1.0</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -2002,34 +2263,34 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="E46" t="n">
-        <v>2.0</v>
+        <v>26.0</v>
       </c>
       <c r="F46" t="n">
-        <v>29.0</v>
+        <v>380.0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>22.0</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I46" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="J46" t="n">
         <v>0.0</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -2037,25 +2298,25 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
         <v>63</v>
       </c>
       <c r="E47" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="F47" t="n">
-        <v>74.0</v>
+        <v>380.0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I47" t="n">
         <v>3.0</v>
@@ -2064,7 +2325,7 @@
         <v>0.0</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2072,34 +2333,34 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="F48" t="n">
-        <v>74.0</v>
+        <v>380.0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I48" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="J48" t="n">
         <v>0.0</v>
       </c>
       <c r="K48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2107,34 +2368,34 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E49" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="F49" t="n">
-        <v>74.0</v>
+        <v>380.0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I49" t="n">
-        <v>3.0</v>
+        <v>24.0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -2142,34 +2403,34 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
         <v>66</v>
       </c>
       <c r="E50" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="F50" t="n">
-        <v>74.0</v>
+        <v>380.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H50" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I50" t="n">
-        <v>3.0</v>
+        <v>18.0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2177,34 +2438,34 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C51" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E51" t="n">
-        <v>8.0</v>
+        <v>26.0</v>
       </c>
       <c r="F51" t="n">
-        <v>74.0</v>
+        <v>380.0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I51" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="J51" t="n">
         <v>0.0</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -2212,19 +2473,19 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E52" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="F52" t="n">
-        <v>74.0</v>
+        <v>10.0</v>
       </c>
       <c r="G52" t="n">
         <v>0.0</v>
@@ -2233,13 +2494,13 @@
         <v>14</v>
       </c>
       <c r="I52" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="J52" t="n">
         <v>0.0</v>
       </c>
       <c r="K52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2247,19 +2508,19 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E53" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="F53" t="n">
-        <v>74.0</v>
+        <v>10.0</v>
       </c>
       <c r="G53" t="n">
         <v>0.0</v>
@@ -2274,7 +2535,7 @@
         <v>0.0</v>
       </c>
       <c r="K53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -2282,22 +2543,22 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E54" t="n">
-        <v>8.0</v>
+        <v>18.0</v>
       </c>
       <c r="F54" t="n">
-        <v>74.0</v>
+        <v>101.0</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -2309,7 +2570,7 @@
         <v>0.0</v>
       </c>
       <c r="K54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
@@ -2317,22 +2578,22 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E55" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F55" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G55" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
@@ -2344,7 +2605,7 @@
         <v>0.0</v>
       </c>
       <c r="K55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
@@ -2352,22 +2613,22 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E56" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F56" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G56" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
@@ -2379,7 +2640,7 @@
         <v>0.0</v>
       </c>
       <c r="K56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -2387,22 +2648,22 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" t="s">
         <v>75</v>
       </c>
-      <c r="C57" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>79</v>
-      </c>
       <c r="E57" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F57" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G57" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
@@ -2414,7 +2675,7 @@
         <v>0.0</v>
       </c>
       <c r="K57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58">
@@ -2422,34 +2683,34 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
         <v>76</v>
       </c>
-      <c r="D58" t="s">
-        <v>80</v>
-      </c>
       <c r="E58" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F58" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G58" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
       </c>
       <c r="I58" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
@@ -2457,34 +2718,34 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E59" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F59" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G59" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
       <c r="I59" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="J59" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="K59" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
@@ -2492,34 +2753,34 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D60" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E60" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F60" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G60" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
       </c>
       <c r="I60" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -2527,22 +2788,22 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E61" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F61" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G61" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
@@ -2554,7 +2815,7 @@
         <v>0.0</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -2562,34 +2823,34 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E62" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F62" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G62" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>14.0</v>
+        <v>3.0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
@@ -2597,34 +2858,34 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E63" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F63" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G63" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>18.0</v>
+        <v>3.0</v>
       </c>
       <c r="J63" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="K63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -2632,34 +2893,34 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E64" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F64" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G64" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
       </c>
       <c r="I64" t="n">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="J64" t="n">
         <v>0.0</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65">
@@ -2667,34 +2928,34 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E65" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F65" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G65" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="J65" t="n">
         <v>0.0</v>
       </c>
       <c r="K65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66">
@@ -2702,34 +2963,34 @@
         <v>65.0</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E66" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F66" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G66" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
       <c r="I66" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="J66" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -2737,22 +2998,22 @@
         <v>66.0</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E67" t="n">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="F67" t="n">
-        <v>232.0</v>
+        <v>101.0</v>
       </c>
       <c r="G67" t="n">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
@@ -2764,7 +3025,7 @@
         <v>0.0</v>
       </c>
       <c r="K67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -2772,22 +3033,22 @@
         <v>67.0</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E68" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="F68" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
@@ -2799,7 +3060,7 @@
         <v>0.0</v>
       </c>
       <c r="K68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
@@ -2807,22 +3068,22 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E69" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="F69" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
@@ -2834,7 +3095,7 @@
         <v>0.0</v>
       </c>
       <c r="K69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -2842,22 +3103,22 @@
         <v>69.0</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E70" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="F70" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
@@ -2869,7 +3130,7 @@
         <v>0.0</v>
       </c>
       <c r="K70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -2877,19 +3138,19 @@
         <v>70.0</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E71" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
       <c r="F71" t="n">
-        <v>25.0</v>
+        <v>101.0</v>
       </c>
       <c r="G71" t="n">
         <v>0.0</v>
@@ -2898,13 +3159,13 @@
         <v>14</v>
       </c>
       <c r="I71" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J71" t="n">
         <v>0.0</v>
       </c>
       <c r="K71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -2912,25 +3173,25 @@
         <v>71.0</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E72" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F72" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G72" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H72" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I72" t="n">
         <v>3.0</v>
@@ -2939,7 +3200,7 @@
         <v>0.0</v>
       </c>
       <c r="K72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
@@ -2947,34 +3208,34 @@
         <v>72.0</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E73" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F73" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G73" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I73" t="n">
-        <v>32.0</v>
+        <v>3.0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="K73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -2982,34 +3243,34 @@
         <v>73.0</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E74" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F74" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G74" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H74" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I74" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -3017,34 +3278,34 @@
         <v>74.0</v>
       </c>
       <c r="B75" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E75" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F75" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G75" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I75" t="n">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -3052,34 +3313,34 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" t="s">
         <v>95</v>
       </c>
-      <c r="D76" t="s">
-        <v>100</v>
-      </c>
       <c r="E76" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" t="n">
         <v>11.0</v>
       </c>
-      <c r="F76" t="n">
-        <v>304.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25.0</v>
-      </c>
       <c r="J76" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="K76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77">
@@ -3087,34 +3348,34 @@
         <v>76.0</v>
       </c>
       <c r="B77" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E77" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F77" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G77" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I77" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78">
@@ -3122,34 +3383,34 @@
         <v>77.0</v>
       </c>
       <c r="B78" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D78" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E78" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F78" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G78" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H78" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I78" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="J78" t="n">
         <v>0.0</v>
       </c>
       <c r="K78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
@@ -3157,34 +3418,34 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E79" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F79" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G79" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I79" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
@@ -3192,34 +3453,34 @@
         <v>79.0</v>
       </c>
       <c r="B80" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D80" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E80" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F80" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G80" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I80" t="n">
-        <v>24.0</v>
+        <v>4.0</v>
       </c>
       <c r="J80" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="K80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -3227,34 +3488,34 @@
         <v>80.0</v>
       </c>
       <c r="B81" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E81" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F81" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G81" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I81" t="n">
         <v>18.0</v>
       </c>
       <c r="J81" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K81" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -3262,34 +3523,34 @@
         <v>81.0</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E82" t="n">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
       <c r="F82" t="n">
-        <v>304.0</v>
+        <v>237.0</v>
       </c>
       <c r="G82" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I82" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83">
@@ -3297,34 +3558,34 @@
         <v>82.0</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E83" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F83" t="n">
-        <v>76.0</v>
+        <v>237.0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="H83" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I83" t="n">
-        <v>5.0</v>
+        <v>19.0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K83" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
@@ -3332,34 +3593,34 @@
         <v>83.0</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E84" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="n">
         <v>6.0</v>
       </c>
-      <c r="F84" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2.0</v>
-      </c>
       <c r="J84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="K84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85">
@@ -3367,34 +3628,34 @@
         <v>84.0</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E85" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F85" t="n">
-        <v>76.0</v>
+        <v>237.0</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I85" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J85" t="n">
         <v>5.0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K85" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
@@ -3402,34 +3663,34 @@
         <v>85.0</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E86" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F86" t="n">
-        <v>76.0</v>
+        <v>237.0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I86" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="K86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
@@ -3437,34 +3698,34 @@
         <v>86.0</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E87" t="n">
-        <v>6.0</v>
+        <v>21.0</v>
       </c>
       <c r="F87" t="n">
-        <v>76.0</v>
+        <v>237.0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I87" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="K87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88">
@@ -3472,34 +3733,34 @@
         <v>87.0</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D88" t="s">
         <v>107</v>
       </c>
-      <c r="D88" t="s">
-        <v>113</v>
-      </c>
       <c r="E88" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J88" t="n">
         <v>6.0</v>
       </c>
-      <c r="F88" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K88" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
@@ -3507,34 +3768,34 @@
         <v>88.0</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E89" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="F89" t="n">
-        <v>70.0</v>
+        <v>237.0</v>
       </c>
       <c r="G89" t="n">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
       <c r="H89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I89" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="J89" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90">
@@ -3542,34 +3803,34 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C90" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E90" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="F90" t="n">
-        <v>70.0</v>
+        <v>237.0</v>
       </c>
       <c r="G90" t="n">
-        <v>3.0</v>
+        <v>43.0</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I90" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
@@ -3577,34 +3838,34 @@
         <v>90.0</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E91" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="F91" t="n">
-        <v>70.0</v>
+        <v>237.0</v>
       </c>
       <c r="G91" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
       </c>
       <c r="I91" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J91" t="n">
         <v>0.0</v>
       </c>
       <c r="K91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -3612,34 +3873,34 @@
         <v>91.0</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E92" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>237.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" t="n">
         <v>2.0</v>
       </c>
-      <c r="F92" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.0</v>
-      </c>
       <c r="K92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93">
@@ -3647,34 +3908,3394 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="K93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>115</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s">
+        <v>117</v>
+      </c>
+      <c r="E94" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>115</v>
+      </c>
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" t="s">
         <v>118</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E95" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>115</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
         <v>119</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E96" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>115</v>
+      </c>
+      <c r="C97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="K98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+      <c r="C99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="K99" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>115</v>
+      </c>
+      <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" t="s">
+        <v>124</v>
+      </c>
+      <c r="E101" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>115</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+      <c r="I102" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>115</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>115</v>
+      </c>
+      <c r="C104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" t="s">
+        <v>127</v>
+      </c>
+      <c r="E104" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" t="s">
+        <v>129</v>
+      </c>
+      <c r="E106" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J106" t="n">
         <v>2.0</v>
       </c>
-      <c r="F93" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="G93" t="n">
+      <c r="K106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106.0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>130</v>
+      </c>
+      <c r="E107" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107.0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>131</v>
+      </c>
+      <c r="E108" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
+        <v>132</v>
+      </c>
+      <c r="E109" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="s">
+        <v>133</v>
+      </c>
+      <c r="E110" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110.0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" t="s">
+        <v>134</v>
+      </c>
+      <c r="E111" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
+        <v>135</v>
+      </c>
+      <c r="E112" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" t="s">
+        <v>137</v>
+      </c>
+      <c r="E113" t="n">
         <v>5.0</v>
       </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="n">
+      <c r="F113" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" t="s">
+        <v>119</v>
+      </c>
+      <c r="E114" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114.0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>136</v>
+      </c>
+      <c r="D115" t="s">
+        <v>138</v>
+      </c>
+      <c r="E115" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116" t="s">
+        <v>139</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" t="s">
+        <v>136</v>
+      </c>
+      <c r="D117" t="s">
+        <v>140</v>
+      </c>
+      <c r="E117" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" t="s">
+        <v>143</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>141</v>
+      </c>
+      <c r="C119" t="s">
+        <v>142</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119.0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>145</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" t="s">
+        <v>146</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>141</v>
+      </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" t="s">
+        <v>147</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123" t="s">
+        <v>148</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="K123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>141</v>
+      </c>
+      <c r="C124" t="s">
+        <v>149</v>
+      </c>
+      <c r="D124" t="s">
+        <v>150</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124.0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>141</v>
+      </c>
+      <c r="C125" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" t="s">
+        <v>151</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125.0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>141</v>
+      </c>
+      <c r="C126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" t="s">
+        <v>152</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126.0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>141</v>
+      </c>
+      <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" t="s">
+        <v>153</v>
+      </c>
+      <c r="E127" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127.0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" t="s">
+        <v>155</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>141</v>
+      </c>
+      <c r="C129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" t="s">
+        <v>156</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129.0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" t="s">
+        <v>154</v>
+      </c>
+      <c r="D130" t="s">
+        <v>157</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>141</v>
+      </c>
+      <c r="C131" t="s">
+        <v>154</v>
+      </c>
+      <c r="D131" t="s">
+        <v>158</v>
+      </c>
+      <c r="E131" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131.0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>141</v>
+      </c>
+      <c r="C132" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" t="s">
+        <v>159</v>
+      </c>
+      <c r="E132" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132.0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133.0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>141</v>
+      </c>
+      <c r="C134" t="s">
+        <v>160</v>
+      </c>
+      <c r="D134" t="s">
+        <v>155</v>
+      </c>
+      <c r="E134" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134.0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" t="s">
+        <v>157</v>
+      </c>
+      <c r="E135" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135.0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" t="s">
+        <v>160</v>
+      </c>
+      <c r="D136" t="s">
+        <v>156</v>
+      </c>
+      <c r="E136" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" t="s">
+        <v>160</v>
+      </c>
+      <c r="D137" t="s">
+        <v>158</v>
+      </c>
+      <c r="E137" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>141</v>
+      </c>
+      <c r="C138" t="s">
+        <v>160</v>
+      </c>
+      <c r="D138" t="s">
+        <v>161</v>
+      </c>
+      <c r="E138" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>141</v>
+      </c>
+      <c r="C139" t="s">
+        <v>160</v>
+      </c>
+      <c r="D139" t="s">
+        <v>162</v>
+      </c>
+      <c r="E139" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140" t="s">
+        <v>160</v>
+      </c>
+      <c r="D140" t="s">
+        <v>163</v>
+      </c>
+      <c r="E140" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" t="s">
+        <v>164</v>
+      </c>
+      <c r="E141" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>141</v>
+      </c>
+      <c r="C142" t="s">
+        <v>160</v>
+      </c>
+      <c r="D142" t="s">
+        <v>165</v>
+      </c>
+      <c r="E142" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>166</v>
+      </c>
+      <c r="D143" t="s">
+        <v>167</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143.0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>166</v>
+      </c>
+      <c r="D144" t="s">
+        <v>18</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>166</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>70</v>
+      </c>
+      <c r="C146" t="s">
+        <v>168</v>
+      </c>
+      <c r="D146" t="s">
+        <v>167</v>
+      </c>
+      <c r="E146" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146.0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>70</v>
+      </c>
+      <c r="C147" t="s">
+        <v>168</v>
+      </c>
+      <c r="D147" t="s">
+        <v>169</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147.0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>70</v>
+      </c>
+      <c r="C148" t="s">
+        <v>168</v>
+      </c>
+      <c r="D148" t="s">
+        <v>170</v>
+      </c>
+      <c r="E148" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148.0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>70</v>
+      </c>
+      <c r="C149" t="s">
+        <v>168</v>
+      </c>
+      <c r="D149" t="s">
+        <v>171</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>70</v>
+      </c>
+      <c r="C150" t="s">
+        <v>168</v>
+      </c>
+      <c r="D150" t="s">
+        <v>172</v>
+      </c>
+      <c r="E150" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150.0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>70</v>
+      </c>
+      <c r="C151" t="s">
+        <v>168</v>
+      </c>
+      <c r="D151" t="s">
+        <v>173</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151.0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>112</v>
+      </c>
+      <c r="C152" t="s">
+        <v>174</v>
+      </c>
+      <c r="D152" t="s">
+        <v>175</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" t="s">
+        <v>178</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153.0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" t="s">
+        <v>179</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154.0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" t="s">
+        <v>177</v>
+      </c>
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>115</v>
+      </c>
+      <c r="C156" t="s">
+        <v>180</v>
+      </c>
+      <c r="D156" t="s">
+        <v>167</v>
+      </c>
+      <c r="E156" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>115</v>
+      </c>
+      <c r="C157" t="s">
+        <v>180</v>
+      </c>
+      <c r="D157" t="s">
+        <v>181</v>
+      </c>
+      <c r="E157" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" t="n">
         <v>23.0</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J157" t="n">
         <v>5.0</v>
       </c>
-      <c r="K93" t="s">
-        <v>15</v>
+      <c r="K157" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>115</v>
+      </c>
+      <c r="C158" t="s">
+        <v>180</v>
+      </c>
+      <c r="D158" t="s">
+        <v>182</v>
+      </c>
+      <c r="E158" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158.0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" t="s">
+        <v>180</v>
+      </c>
+      <c r="D159" t="s">
+        <v>183</v>
+      </c>
+      <c r="E159" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>115</v>
+      </c>
+      <c r="C160" t="s">
+        <v>180</v>
+      </c>
+      <c r="D160" t="s">
+        <v>184</v>
+      </c>
+      <c r="E160" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161" t="s">
+        <v>180</v>
+      </c>
+      <c r="D161" t="s">
+        <v>185</v>
+      </c>
+      <c r="E161" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161.0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" t="s">
+        <v>180</v>
+      </c>
+      <c r="D162" t="s">
+        <v>186</v>
+      </c>
+      <c r="E162" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162.0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>115</v>
+      </c>
+      <c r="C163" t="s">
+        <v>180</v>
+      </c>
+      <c r="D163" t="s">
+        <v>187</v>
+      </c>
+      <c r="E163" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>115</v>
+      </c>
+      <c r="C164" t="s">
+        <v>180</v>
+      </c>
+      <c r="D164" t="s">
+        <v>188</v>
+      </c>
+      <c r="E164" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="K164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164.0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" t="s">
+        <v>180</v>
+      </c>
+      <c r="D165" t="s">
+        <v>189</v>
+      </c>
+      <c r="E165" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165.0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>115</v>
+      </c>
+      <c r="C166" t="s">
+        <v>180</v>
+      </c>
+      <c r="D166" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" t="s">
+        <v>180</v>
+      </c>
+      <c r="D167" t="s">
+        <v>191</v>
+      </c>
+      <c r="E167" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="B168" t="s">
+        <v>115</v>
+      </c>
+      <c r="C168" t="s">
+        <v>180</v>
+      </c>
+      <c r="D168" t="s">
+        <v>192</v>
+      </c>
+      <c r="E168" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168.0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>141</v>
+      </c>
+      <c r="C169" t="s">
+        <v>193</v>
+      </c>
+      <c r="D169" t="s">
+        <v>194</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169.0</v>
+      </c>
+      <c r="B170" t="s">
+        <v>141</v>
+      </c>
+      <c r="C170" t="s">
+        <v>193</v>
+      </c>
+      <c r="D170" t="s">
+        <v>195</v>
+      </c>
+      <c r="E170" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>141</v>
+      </c>
+      <c r="C171" t="s">
+        <v>193</v>
+      </c>
+      <c r="D171" t="s">
+        <v>196</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>141</v>
+      </c>
+      <c r="C172" t="s">
+        <v>193</v>
+      </c>
+      <c r="D172" t="s">
+        <v>197</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>141</v>
+      </c>
+      <c r="C173" t="s">
+        <v>193</v>
+      </c>
+      <c r="D173" t="s">
+        <v>198</v>
+      </c>
+      <c r="E173" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>141</v>
+      </c>
+      <c r="C174" t="s">
+        <v>193</v>
+      </c>
+      <c r="D174" t="s">
+        <v>199</v>
+      </c>
+      <c r="E174" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>141</v>
+      </c>
+      <c r="C175" t="s">
+        <v>200</v>
+      </c>
+      <c r="D175" t="s">
+        <v>169</v>
+      </c>
+      <c r="E175" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>141</v>
+      </c>
+      <c r="C176" t="s">
+        <v>200</v>
+      </c>
+      <c r="D176" t="s">
+        <v>155</v>
+      </c>
+      <c r="E176" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>141</v>
+      </c>
+      <c r="C177" t="s">
+        <v>200</v>
+      </c>
+      <c r="D177" t="s">
+        <v>156</v>
+      </c>
+      <c r="E177" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>141</v>
+      </c>
+      <c r="C178" t="s">
+        <v>200</v>
+      </c>
+      <c r="D178" t="s">
+        <v>201</v>
+      </c>
+      <c r="E178" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>141</v>
+      </c>
+      <c r="C179" t="s">
+        <v>200</v>
+      </c>
+      <c r="D179" t="s">
+        <v>202</v>
+      </c>
+      <c r="E179" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>141</v>
+      </c>
+      <c r="C180" t="s">
+        <v>203</v>
+      </c>
+      <c r="D180" t="s">
+        <v>169</v>
+      </c>
+      <c r="E180" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+      <c r="I180" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>141</v>
+      </c>
+      <c r="C181" t="s">
+        <v>203</v>
+      </c>
+      <c r="D181" t="s">
+        <v>155</v>
+      </c>
+      <c r="E181" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+      <c r="I181" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>141</v>
+      </c>
+      <c r="C182" t="s">
+        <v>203</v>
+      </c>
+      <c r="D182" t="s">
+        <v>201</v>
+      </c>
+      <c r="E182" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182.0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" t="s">
+        <v>203</v>
+      </c>
+      <c r="D183" t="s">
+        <v>156</v>
+      </c>
+      <c r="E183" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>141</v>
+      </c>
+      <c r="C184" t="s">
+        <v>203</v>
+      </c>
+      <c r="D184" t="s">
+        <v>202</v>
+      </c>
+      <c r="E184" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184.0</v>
+      </c>
+      <c r="B185" t="s">
+        <v>141</v>
+      </c>
+      <c r="C185" t="s">
+        <v>203</v>
+      </c>
+      <c r="D185" t="s">
+        <v>161</v>
+      </c>
+      <c r="E185" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185.0</v>
+      </c>
+      <c r="B186" t="s">
+        <v>141</v>
+      </c>
+      <c r="C186" t="s">
+        <v>203</v>
+      </c>
+      <c r="D186" t="s">
+        <v>204</v>
+      </c>
+      <c r="E186" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H186" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186.0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>141</v>
+      </c>
+      <c r="C187" t="s">
+        <v>203</v>
+      </c>
+      <c r="D187" t="s">
+        <v>163</v>
+      </c>
+      <c r="E187" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187.0</v>
+      </c>
+      <c r="B188" t="s">
+        <v>141</v>
+      </c>
+      <c r="C188" t="s">
+        <v>203</v>
+      </c>
+      <c r="D188" t="s">
+        <v>205</v>
+      </c>
+      <c r="E188" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="B189" t="s">
+        <v>141</v>
+      </c>
+      <c r="C189" t="s">
+        <v>203</v>
+      </c>
+      <c r="D189" t="s">
+        <v>206</v>
+      </c>
+      <c r="E189" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K189" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/ES-2Sem-2021-Grupo24_metrics.xlsx
+++ b/src/test/java/resources/ES-2Sem-2021-Grupo24_metrics.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Joao\escola\UNI\Lei3ano\2semestre\ES\Pratica\ES-2Sem-2021-Grupo24\src\test\java\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28899A53-18EC-4023-A59E-E2F91786DC19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="208">
   <si>
     <t>MethodID</t>
   </si>
@@ -633,16 +641,18 @@
   </si>
   <si>
     <t>testToString()</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -654,7 +664,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -672,18 +682,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,9 +1038,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -731,31 +1051,31 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>13.0</v>
+      <c r="E2">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>118</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.0</v>
+        <v>207</v>
+      </c>
+      <c r="I2">
+        <v>29</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -766,31 +1086,31 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>13.0</v>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>118</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.0</v>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -801,31 +1121,31 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13.0</v>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>118</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>9.0</v>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
       </c>
       <c r="K4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -836,31 +1156,31 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>13.0</v>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>118</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0</v>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -871,31 +1191,31 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>13.0</v>
+      <c r="E6">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>118</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -906,31 +1226,31 @@
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>13.0</v>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>118</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.0</v>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -941,31 +1261,31 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>13.0</v>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>118</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0</v>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -976,31 +1296,31 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13.0</v>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>118</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0</v>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -1011,31 +1331,31 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>13.0</v>
+      <c r="E10">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>118</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0</v>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1046,31 +1366,31 @@
       <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>13.0</v>
+      <c r="E11">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>118</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0</v>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1081,31 +1401,31 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>13.0</v>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>118</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.0</v>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>12.0</v>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1116,31 +1436,31 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>13.0</v>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>118</v>
+      </c>
+      <c r="G13">
+        <v>13</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0</v>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
       </c>
       <c r="K13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>13.0</v>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -1151,31 +1471,31 @@
       <c r="D14" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>13.0</v>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>118</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="I14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.0</v>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>14.0</v>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -1186,31 +1506,31 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="E15" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>13.0</v>
+      <c r="E15">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>118</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="I15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.0</v>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>15.0</v>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -1221,31 +1541,31 @@
       <c r="D16" t="s">
         <v>29</v>
       </c>
-      <c r="E16" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>13.0</v>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>118</v>
+      </c>
+      <c r="G16">
+        <v>13</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.0</v>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>16.0</v>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -1256,31 +1576,31 @@
       <c r="D17" t="s">
         <v>30</v>
       </c>
-      <c r="E17" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>13.0</v>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>118</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="I17" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.0</v>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
       <c r="K17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17.0</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -1291,31 +1611,31 @@
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13.0</v>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>118</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
-      <c r="I18" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0</v>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18.0</v>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -1326,31 +1646,31 @@
       <c r="D19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>13.0</v>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>118</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="I19" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0</v>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19.0</v>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -1361,31 +1681,31 @@
       <c r="D20" t="s">
         <v>33</v>
       </c>
-      <c r="E20" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.0</v>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>118</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
-      <c r="I20" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.0</v>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20.0</v>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -1396,31 +1716,31 @@
       <c r="D21" t="s">
         <v>35</v>
       </c>
-      <c r="E21" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.0</v>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
-      <c r="I21" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.0</v>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>21.0</v>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -1431,31 +1751,31 @@
       <c r="D22" t="s">
         <v>36</v>
       </c>
-      <c r="E22" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.0</v>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>58</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.0</v>
+      <c r="I22">
+        <v>18</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
       </c>
       <c r="K22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>22.0</v>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -1466,31 +1786,31 @@
       <c r="D23" t="s">
         <v>37</v>
       </c>
-      <c r="E23" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.0</v>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>58</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
-      <c r="I23" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.0</v>
+      <c r="I23">
+        <v>13</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>23.0</v>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -1501,31 +1821,31 @@
       <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="E24" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.0</v>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>58</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c r="I24" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.0</v>
+      <c r="I24">
+        <v>17</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>24.0</v>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
@@ -1536,31 +1856,31 @@
       <c r="D25" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>58.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.0</v>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
-      <c r="I25" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.0</v>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>25.0</v>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1571,31 +1891,31 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-      <c r="E26" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>22.0</v>
+      <c r="E26">
+        <v>26</v>
+      </c>
+      <c r="F26">
+        <v>380</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
       </c>
       <c r="H26" t="s">
         <v>17</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.0</v>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
       </c>
       <c r="K26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>26.0</v>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -1606,31 +1926,31 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="E27" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>22.0</v>
+      <c r="E27">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <v>380</v>
+      </c>
+      <c r="G27">
+        <v>22</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
       </c>
-      <c r="I27" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.0</v>
+      <c r="I27">
+        <v>31</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
       </c>
       <c r="K27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>27.0</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>40</v>
@@ -1641,31 +1961,31 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-      <c r="E28" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>22.0</v>
+      <c r="E28">
+        <v>26</v>
+      </c>
+      <c r="F28">
+        <v>380</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
       </c>
       <c r="H28" t="s">
         <v>17</v>
       </c>
-      <c r="I28" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.0</v>
+      <c r="I28">
+        <v>21</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
       </c>
       <c r="K28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>28.0</v>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>40</v>
@@ -1676,31 +1996,31 @@
       <c r="D29" t="s">
         <v>45</v>
       </c>
-      <c r="E29" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>22.0</v>
+      <c r="E29">
+        <v>26</v>
+      </c>
+      <c r="F29">
+        <v>380</v>
+      </c>
+      <c r="G29">
+        <v>22</v>
       </c>
       <c r="H29" t="s">
         <v>17</v>
       </c>
-      <c r="I29" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0</v>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29.0</v>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
@@ -1711,31 +2031,31 @@
       <c r="D30" t="s">
         <v>46</v>
       </c>
-      <c r="E30" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>22.0</v>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>380</v>
+      </c>
+      <c r="G30">
+        <v>22</v>
       </c>
       <c r="H30" t="s">
         <v>17</v>
       </c>
-      <c r="I30" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.0</v>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30.0</v>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>40</v>
@@ -1746,31 +2066,31 @@
       <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="E31" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>22.0</v>
+      <c r="E31">
+        <v>26</v>
+      </c>
+      <c r="F31">
+        <v>380</v>
+      </c>
+      <c r="G31">
+        <v>22</v>
       </c>
       <c r="H31" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0</v>
+      <c r="I31">
+        <v>8</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31.0</v>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -1781,31 +2101,31 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>22.0</v>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32">
+        <v>380</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
       </c>
       <c r="H32" t="s">
         <v>17</v>
       </c>
-      <c r="I32" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.0</v>
+      <c r="I32">
+        <v>8</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32.0</v>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>40</v>
@@ -1816,31 +2136,31 @@
       <c r="D33" t="s">
         <v>49</v>
       </c>
-      <c r="E33" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>22.0</v>
+      <c r="E33">
+        <v>26</v>
+      </c>
+      <c r="F33">
+        <v>380</v>
+      </c>
+      <c r="G33">
+        <v>22</v>
       </c>
       <c r="H33" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.0</v>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33.0</v>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
@@ -1851,31 +2171,31 @@
       <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="E34" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>22.0</v>
+      <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34">
+        <v>380</v>
+      </c>
+      <c r="G34">
+        <v>22</v>
       </c>
       <c r="H34" t="s">
         <v>17</v>
       </c>
-      <c r="I34" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.0</v>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34.0</v>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>40</v>
@@ -1886,31 +2206,31 @@
       <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="E35" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>22.0</v>
+      <c r="E35">
+        <v>26</v>
+      </c>
+      <c r="F35">
+        <v>380</v>
+      </c>
+      <c r="G35">
+        <v>22</v>
       </c>
       <c r="H35" t="s">
         <v>17</v>
       </c>
-      <c r="I35" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.0</v>
+      <c r="I35">
+        <v>14</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35.0</v>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>40</v>
@@ -1921,31 +2241,31 @@
       <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E36" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>22.0</v>
+      <c r="E36">
+        <v>26</v>
+      </c>
+      <c r="F36">
+        <v>380</v>
+      </c>
+      <c r="G36">
+        <v>22</v>
       </c>
       <c r="H36" t="s">
         <v>17</v>
       </c>
-      <c r="I36" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.0</v>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36.0</v>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -1956,31 +2276,31 @@
       <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>22.0</v>
+      <c r="E37">
+        <v>26</v>
+      </c>
+      <c r="F37">
+        <v>380</v>
+      </c>
+      <c r="G37">
+        <v>22</v>
       </c>
       <c r="H37" t="s">
         <v>17</v>
       </c>
-      <c r="I37" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.0</v>
+      <c r="I37">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37.0</v>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -1991,31 +2311,31 @@
       <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="E38" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>22.0</v>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>380</v>
+      </c>
+      <c r="G38">
+        <v>22</v>
       </c>
       <c r="H38" t="s">
         <v>17</v>
       </c>
-      <c r="I38" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.0</v>
+      <c r="I38">
+        <v>34</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38.0</v>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -2026,31 +2346,31 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E39" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>22.0</v>
+      <c r="E39">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <v>380</v>
+      </c>
+      <c r="G39">
+        <v>22</v>
       </c>
       <c r="H39" t="s">
         <v>17</v>
       </c>
-      <c r="I39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.0</v>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
       </c>
       <c r="K39" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39.0</v>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -2061,31 +2381,31 @@
       <c r="D40" t="s">
         <v>56</v>
       </c>
-      <c r="E40" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>22.0</v>
+      <c r="E40">
+        <v>26</v>
+      </c>
+      <c r="F40">
+        <v>380</v>
+      </c>
+      <c r="G40">
+        <v>22</v>
       </c>
       <c r="H40" t="s">
         <v>17</v>
       </c>
-      <c r="I40" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.0</v>
+      <c r="I40">
+        <v>28</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
       </c>
       <c r="K40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40.0</v>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
@@ -2096,31 +2416,31 @@
       <c r="D41" t="s">
         <v>57</v>
       </c>
-      <c r="E41" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>22.0</v>
+      <c r="E41">
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>380</v>
+      </c>
+      <c r="G41">
+        <v>22</v>
       </c>
       <c r="H41" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3.0</v>
+      <c r="I41">
+        <v>16</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
       </c>
       <c r="K41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41.0</v>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>40</v>
@@ -2131,31 +2451,31 @@
       <c r="D42" t="s">
         <v>58</v>
       </c>
-      <c r="E42" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>22.0</v>
+      <c r="E42">
+        <v>26</v>
+      </c>
+      <c r="F42">
+        <v>380</v>
+      </c>
+      <c r="G42">
+        <v>22</v>
       </c>
       <c r="H42" t="s">
         <v>17</v>
       </c>
-      <c r="I42" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.0</v>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
       </c>
       <c r="K42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42.0</v>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2166,31 +2486,31 @@
       <c r="D43" t="s">
         <v>59</v>
       </c>
-      <c r="E43" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>22.0</v>
+      <c r="E43">
+        <v>26</v>
+      </c>
+      <c r="F43">
+        <v>380</v>
+      </c>
+      <c r="G43">
+        <v>22</v>
       </c>
       <c r="H43" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.0</v>
+      <c r="I43">
+        <v>16</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
       </c>
       <c r="K43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43.0</v>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>40</v>
@@ -2201,31 +2521,31 @@
       <c r="D44" t="s">
         <v>60</v>
       </c>
-      <c r="E44" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>22.0</v>
+      <c r="E44">
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <v>380</v>
+      </c>
+      <c r="G44">
+        <v>22</v>
       </c>
       <c r="H44" t="s">
         <v>17</v>
       </c>
-      <c r="I44" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.0</v>
+      <c r="I44">
+        <v>27</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
       </c>
       <c r="K44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44.0</v>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>40</v>
@@ -2236,31 +2556,31 @@
       <c r="D45" t="s">
         <v>61</v>
       </c>
-      <c r="E45" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>22.0</v>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="F45">
+        <v>380</v>
+      </c>
+      <c r="G45">
+        <v>22</v>
       </c>
       <c r="H45" t="s">
         <v>17</v>
       </c>
-      <c r="I45" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.0</v>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
       </c>
       <c r="K45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45.0</v>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>40</v>
@@ -2271,31 +2591,31 @@
       <c r="D46" t="s">
         <v>62</v>
       </c>
-      <c r="E46" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>22.0</v>
+      <c r="E46">
+        <v>26</v>
+      </c>
+      <c r="F46">
+        <v>380</v>
+      </c>
+      <c r="G46">
+        <v>22</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
       </c>
-      <c r="I46" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.0</v>
+      <c r="I46">
+        <v>7</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
       </c>
       <c r="K46" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46.0</v>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -2306,31 +2626,31 @@
       <c r="D47" t="s">
         <v>63</v>
       </c>
-      <c r="E47" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>22.0</v>
+      <c r="E47">
+        <v>26</v>
+      </c>
+      <c r="F47">
+        <v>380</v>
+      </c>
+      <c r="G47">
+        <v>22</v>
       </c>
       <c r="H47" t="s">
         <v>17</v>
       </c>
-      <c r="I47" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.0</v>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
       </c>
       <c r="K47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47.0</v>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>40</v>
@@ -2341,31 +2661,31 @@
       <c r="D48" t="s">
         <v>64</v>
       </c>
-      <c r="E48" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>22.0</v>
+      <c r="E48">
+        <v>26</v>
+      </c>
+      <c r="F48">
+        <v>380</v>
+      </c>
+      <c r="G48">
+        <v>22</v>
       </c>
       <c r="H48" t="s">
         <v>17</v>
       </c>
-      <c r="I48" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.0</v>
+      <c r="I48">
+        <v>6</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
       </c>
       <c r="K48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48.0</v>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>40</v>
@@ -2376,31 +2696,31 @@
       <c r="D49" t="s">
         <v>65</v>
       </c>
-      <c r="E49" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>22.0</v>
+      <c r="E49">
+        <v>26</v>
+      </c>
+      <c r="F49">
+        <v>380</v>
+      </c>
+      <c r="G49">
+        <v>22</v>
       </c>
       <c r="H49" t="s">
         <v>17</v>
       </c>
-      <c r="I49" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>4.0</v>
+      <c r="I49">
+        <v>24</v>
+      </c>
+      <c r="J49">
+        <v>4</v>
       </c>
       <c r="K49" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49.0</v>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>40</v>
@@ -2411,31 +2731,31 @@
       <c r="D50" t="s">
         <v>66</v>
       </c>
-      <c r="E50" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>22.0</v>
+      <c r="E50">
+        <v>26</v>
+      </c>
+      <c r="F50">
+        <v>380</v>
+      </c>
+      <c r="G50">
+        <v>22</v>
       </c>
       <c r="H50" t="s">
         <v>17</v>
       </c>
-      <c r="I50" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.0</v>
+      <c r="I50">
+        <v>18</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
       </c>
       <c r="K50" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50.0</v>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>40</v>
@@ -2446,31 +2766,31 @@
       <c r="D51" t="s">
         <v>67</v>
       </c>
-      <c r="E51" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>380.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>22.0</v>
+      <c r="E51">
+        <v>26</v>
+      </c>
+      <c r="F51">
+        <v>380</v>
+      </c>
+      <c r="G51">
+        <v>22</v>
       </c>
       <c r="H51" t="s">
         <v>17</v>
       </c>
-      <c r="I51" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.0</v>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51.0</v>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>40</v>
@@ -2481,31 +2801,31 @@
       <c r="D52" t="s">
         <v>69</v>
       </c>
-      <c r="E52" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.0</v>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="I52" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.0</v>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
       </c>
       <c r="K52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52.0</v>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>40</v>
@@ -2516,31 +2836,31 @@
       <c r="D53" t="s">
         <v>32</v>
       </c>
-      <c r="E53" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.0</v>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
       </c>
-      <c r="I53" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.0</v>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53.0</v>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>70</v>
@@ -2551,31 +2871,31 @@
       <c r="D54" t="s">
         <v>72</v>
       </c>
-      <c r="E54" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>15.0</v>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>101</v>
+      </c>
+      <c r="G54">
+        <v>15</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="I54" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.0</v>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
       </c>
       <c r="K54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54.0</v>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>70</v>
@@ -2586,31 +2906,31 @@
       <c r="D55" t="s">
         <v>73</v>
       </c>
-      <c r="E55" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>15.0</v>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>101</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
-      <c r="I55" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.0</v>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
       </c>
       <c r="K55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55.0</v>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>70</v>
@@ -2621,31 +2941,31 @@
       <c r="D56" t="s">
         <v>74</v>
       </c>
-      <c r="E56" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>15.0</v>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="F56">
+        <v>101</v>
+      </c>
+      <c r="G56">
+        <v>15</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="I56" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.0</v>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
       </c>
       <c r="K56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56.0</v>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>70</v>
@@ -2656,31 +2976,31 @@
       <c r="D57" t="s">
         <v>75</v>
       </c>
-      <c r="E57" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>15.0</v>
+      <c r="E57">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>101</v>
+      </c>
+      <c r="G57">
+        <v>15</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
       </c>
-      <c r="I57" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.0</v>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
       </c>
       <c r="K57" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57.0</v>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
@@ -2691,31 +3011,31 @@
       <c r="D58" t="s">
         <v>76</v>
       </c>
-      <c r="E58" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>15.0</v>
+      <c r="E58">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>101</v>
+      </c>
+      <c r="G58">
+        <v>15</v>
       </c>
       <c r="H58" t="s">
         <v>14</v>
       </c>
-      <c r="I58" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6.0</v>
+      <c r="I58">
+        <v>21</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
       </c>
       <c r="K58" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58.0</v>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>70</v>
@@ -2726,31 +3046,31 @@
       <c r="D59" t="s">
         <v>77</v>
       </c>
-      <c r="E59" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>15.0</v>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>101</v>
+      </c>
+      <c r="G59">
+        <v>15</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
-      <c r="I59" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>6.0</v>
+      <c r="I59">
+        <v>16</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
       </c>
       <c r="K59" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59.0</v>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
@@ -2761,31 +3081,31 @@
       <c r="D60" t="s">
         <v>78</v>
       </c>
-      <c r="E60" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>15.0</v>
+      <c r="E60">
+        <v>18</v>
+      </c>
+      <c r="F60">
+        <v>101</v>
+      </c>
+      <c r="G60">
+        <v>15</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="I60" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.0</v>
+      <c r="I60">
+        <v>11</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
       </c>
       <c r="K60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>60.0</v>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
@@ -2796,31 +3116,31 @@
       <c r="D61" t="s">
         <v>79</v>
       </c>
-      <c r="E61" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>15.0</v>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>101</v>
+      </c>
+      <c r="G61">
+        <v>15</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
       </c>
-      <c r="I61" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.0</v>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
       </c>
       <c r="K61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>61.0</v>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
@@ -2831,31 +3151,31 @@
       <c r="D62" t="s">
         <v>80</v>
       </c>
-      <c r="E62" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>15.0</v>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>101</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
-      <c r="I62" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.0</v>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
       </c>
       <c r="K62" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>62.0</v>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -2866,31 +3186,31 @@
       <c r="D63" t="s">
         <v>81</v>
       </c>
-      <c r="E63" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G63" t="n">
-        <v>15.0</v>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>101</v>
+      </c>
+      <c r="G63">
+        <v>15</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
-      <c r="I63" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.0</v>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
       </c>
       <c r="K63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>63.0</v>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
@@ -2901,31 +3221,31 @@
       <c r="D64" t="s">
         <v>82</v>
       </c>
-      <c r="E64" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>15.0</v>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>101</v>
+      </c>
+      <c r="G64">
+        <v>15</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
       </c>
-      <c r="I64" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.0</v>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
       </c>
       <c r="K64" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>64.0</v>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>70</v>
@@ -2936,31 +3256,31 @@
       <c r="D65" t="s">
         <v>83</v>
       </c>
-      <c r="E65" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>15.0</v>
+      <c r="E65">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>101</v>
+      </c>
+      <c r="G65">
+        <v>15</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
-      <c r="I65" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.0</v>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
       </c>
       <c r="K65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>65.0</v>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
@@ -2971,31 +3291,31 @@
       <c r="D66" t="s">
         <v>84</v>
       </c>
-      <c r="E66" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>15.0</v>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>101</v>
+      </c>
+      <c r="G66">
+        <v>15</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
-      <c r="I66" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.0</v>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
       </c>
       <c r="K66" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>66.0</v>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>70</v>
@@ -3006,31 +3326,31 @@
       <c r="D67" t="s">
         <v>85</v>
       </c>
-      <c r="E67" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G67" t="n">
-        <v>15.0</v>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>101</v>
+      </c>
+      <c r="G67">
+        <v>15</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
       </c>
-      <c r="I67" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.0</v>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
       </c>
       <c r="K67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>67.0</v>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>70</v>
@@ -3041,31 +3361,31 @@
       <c r="D68" t="s">
         <v>86</v>
       </c>
-      <c r="E68" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>15.0</v>
+      <c r="E68">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>101</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
       </c>
-      <c r="I68" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.0</v>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
       </c>
       <c r="K68" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>68.0</v>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -3076,31 +3396,31 @@
       <c r="D69" t="s">
         <v>87</v>
       </c>
-      <c r="E69" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>15.0</v>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>101</v>
+      </c>
+      <c r="G69">
+        <v>15</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
       </c>
-      <c r="I69" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.0</v>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>69.0</v>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -3111,31 +3431,31 @@
       <c r="D70" t="s">
         <v>88</v>
       </c>
-      <c r="E70" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G70" t="n">
-        <v>15.0</v>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>101</v>
+      </c>
+      <c r="G70">
+        <v>15</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
-      <c r="I70" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.0</v>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="K70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>70.0</v>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -3146,31 +3466,31 @@
       <c r="D71" t="s">
         <v>89</v>
       </c>
-      <c r="E71" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>101.0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.0</v>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>101</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
       </c>
-      <c r="I71" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.0</v>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
       </c>
       <c r="K71" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>71.0</v>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>70</v>
@@ -3181,31 +3501,31 @@
       <c r="D72" t="s">
         <v>91</v>
       </c>
-      <c r="E72" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F72" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>43.0</v>
+      <c r="E72">
+        <v>21</v>
+      </c>
+      <c r="F72">
+        <v>237</v>
+      </c>
+      <c r="G72">
+        <v>43</v>
       </c>
       <c r="H72" t="s">
         <v>17</v>
       </c>
-      <c r="I72" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.0</v>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
       </c>
       <c r="K72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>72.0</v>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>70</v>
@@ -3216,31 +3536,31 @@
       <c r="D73" t="s">
         <v>92</v>
       </c>
-      <c r="E73" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F73" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>43.0</v>
+      <c r="E73">
+        <v>21</v>
+      </c>
+      <c r="F73">
+        <v>237</v>
+      </c>
+      <c r="G73">
+        <v>43</v>
       </c>
       <c r="H73" t="s">
         <v>17</v>
       </c>
-      <c r="I73" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.0</v>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
       </c>
       <c r="K73" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>73.0</v>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>70</v>
@@ -3251,31 +3571,31 @@
       <c r="D74" t="s">
         <v>93</v>
       </c>
-      <c r="E74" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F74" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>43.0</v>
+      <c r="E74">
+        <v>21</v>
+      </c>
+      <c r="F74">
+        <v>237</v>
+      </c>
+      <c r="G74">
+        <v>43</v>
       </c>
       <c r="H74" t="s">
         <v>17</v>
       </c>
-      <c r="I74" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.0</v>
+      <c r="I74">
+        <v>15</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>74.0</v>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>70</v>
@@ -3286,31 +3606,31 @@
       <c r="D75" t="s">
         <v>94</v>
       </c>
-      <c r="E75" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F75" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>43.0</v>
+      <c r="E75">
+        <v>21</v>
+      </c>
+      <c r="F75">
+        <v>237</v>
+      </c>
+      <c r="G75">
+        <v>43</v>
       </c>
       <c r="H75" t="s">
         <v>17</v>
       </c>
-      <c r="I75" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>4.0</v>
+      <c r="I75">
+        <v>19</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
       </c>
       <c r="K75" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>75.0</v>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>70</v>
@@ -3321,31 +3641,31 @@
       <c r="D76" t="s">
         <v>95</v>
       </c>
-      <c r="E76" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F76" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>43.0</v>
+      <c r="E76">
+        <v>21</v>
+      </c>
+      <c r="F76">
+        <v>237</v>
+      </c>
+      <c r="G76">
+        <v>43</v>
       </c>
       <c r="H76" t="s">
         <v>17</v>
       </c>
-      <c r="I76" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.0</v>
+      <c r="I76">
+        <v>11</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
       </c>
       <c r="K76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
-        <v>76.0</v>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>70</v>
@@ -3356,31 +3676,31 @@
       <c r="D77" t="s">
         <v>96</v>
       </c>
-      <c r="E77" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>43.0</v>
+      <c r="E77">
+        <v>21</v>
+      </c>
+      <c r="F77">
+        <v>237</v>
+      </c>
+      <c r="G77">
+        <v>43</v>
       </c>
       <c r="H77" t="s">
         <v>17</v>
       </c>
-      <c r="I77" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.0</v>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
       </c>
       <c r="K77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>77.0</v>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>70</v>
@@ -3391,31 +3711,31 @@
       <c r="D78" t="s">
         <v>97</v>
       </c>
-      <c r="E78" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>43.0</v>
+      <c r="E78">
+        <v>21</v>
+      </c>
+      <c r="F78">
+        <v>237</v>
+      </c>
+      <c r="G78">
+        <v>43</v>
       </c>
       <c r="H78" t="s">
         <v>17</v>
       </c>
-      <c r="I78" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.0</v>
+      <c r="I78">
+        <v>4</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
       </c>
       <c r="K78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>78.0</v>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>70</v>
@@ -3426,31 +3746,31 @@
       <c r="D79" t="s">
         <v>98</v>
       </c>
-      <c r="E79" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>43.0</v>
+      <c r="E79">
+        <v>21</v>
+      </c>
+      <c r="F79">
+        <v>237</v>
+      </c>
+      <c r="G79">
+        <v>43</v>
       </c>
       <c r="H79" t="s">
         <v>17</v>
       </c>
-      <c r="I79" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>1.0</v>
+      <c r="I79">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
       </c>
       <c r="K79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
-        <v>79.0</v>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>70</v>
@@ -3461,31 +3781,31 @@
       <c r="D80" t="s">
         <v>99</v>
       </c>
-      <c r="E80" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F80" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>43.0</v>
+      <c r="E80">
+        <v>21</v>
+      </c>
+      <c r="F80">
+        <v>237</v>
+      </c>
+      <c r="G80">
+        <v>43</v>
       </c>
       <c r="H80" t="s">
         <v>17</v>
       </c>
-      <c r="I80" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.0</v>
+      <c r="I80">
+        <v>4</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
       </c>
       <c r="K80" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
-        <v>80.0</v>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
@@ -3496,31 +3816,31 @@
       <c r="D81" t="s">
         <v>100</v>
       </c>
-      <c r="E81" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F81" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>43.0</v>
+      <c r="E81">
+        <v>21</v>
+      </c>
+      <c r="F81">
+        <v>237</v>
+      </c>
+      <c r="G81">
+        <v>43</v>
       </c>
       <c r="H81" t="s">
         <v>17</v>
       </c>
-      <c r="I81" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>4.0</v>
+      <c r="I81">
+        <v>18</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
       </c>
       <c r="K81" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
-        <v>81.0</v>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>70</v>
@@ -3531,31 +3851,31 @@
       <c r="D82" t="s">
         <v>101</v>
       </c>
-      <c r="E82" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F82" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>43.0</v>
+      <c r="E82">
+        <v>21</v>
+      </c>
+      <c r="F82">
+        <v>237</v>
+      </c>
+      <c r="G82">
+        <v>43</v>
       </c>
       <c r="H82" t="s">
         <v>17</v>
       </c>
-      <c r="I82" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>4.0</v>
+      <c r="I82">
+        <v>14</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
       </c>
       <c r="K82" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>82.0</v>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>70</v>
@@ -3566,31 +3886,31 @@
       <c r="D83" t="s">
         <v>102</v>
       </c>
-      <c r="E83" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F83" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G83" t="n">
-        <v>43.0</v>
+      <c r="E83">
+        <v>21</v>
+      </c>
+      <c r="F83">
+        <v>237</v>
+      </c>
+      <c r="G83">
+        <v>43</v>
       </c>
       <c r="H83" t="s">
         <v>17</v>
       </c>
-      <c r="I83" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>4.0</v>
+      <c r="I83">
+        <v>19</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
       </c>
       <c r="K83" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>83.0</v>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>70</v>
@@ -3601,31 +3921,31 @@
       <c r="D84" t="s">
         <v>103</v>
       </c>
-      <c r="E84" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F84" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>43.0</v>
+      <c r="E84">
+        <v>21</v>
+      </c>
+      <c r="F84">
+        <v>237</v>
+      </c>
+      <c r="G84">
+        <v>43</v>
       </c>
       <c r="H84" t="s">
         <v>17</v>
       </c>
-      <c r="I84" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.0</v>
+      <c r="I84">
+        <v>6</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
       </c>
       <c r="K84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>84.0</v>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>70</v>
@@ -3636,31 +3956,31 @@
       <c r="D85" t="s">
         <v>104</v>
       </c>
-      <c r="E85" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>43.0</v>
+      <c r="E85">
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <v>237</v>
+      </c>
+      <c r="G85">
+        <v>43</v>
       </c>
       <c r="H85" t="s">
         <v>17</v>
       </c>
-      <c r="I85" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.0</v>
+      <c r="I85">
+        <v>20</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
       </c>
       <c r="K85" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>85.0</v>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>70</v>
@@ -3671,31 +3991,31 @@
       <c r="D86" t="s">
         <v>105</v>
       </c>
-      <c r="E86" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F86" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G86" t="n">
-        <v>43.0</v>
+      <c r="E86">
+        <v>21</v>
+      </c>
+      <c r="F86">
+        <v>237</v>
+      </c>
+      <c r="G86">
+        <v>43</v>
       </c>
       <c r="H86" t="s">
         <v>17</v>
       </c>
-      <c r="I86" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J86" t="n">
-        <v>4.0</v>
+      <c r="I86">
+        <v>17</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
       </c>
       <c r="K86" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
-        <v>86.0</v>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>70</v>
@@ -3706,31 +4026,31 @@
       <c r="D87" t="s">
         <v>106</v>
       </c>
-      <c r="E87" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F87" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G87" t="n">
-        <v>43.0</v>
+      <c r="E87">
+        <v>21</v>
+      </c>
+      <c r="F87">
+        <v>237</v>
+      </c>
+      <c r="G87">
+        <v>43</v>
       </c>
       <c r="H87" t="s">
         <v>17</v>
       </c>
-      <c r="I87" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>3.0</v>
+      <c r="I87">
+        <v>16</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
       </c>
       <c r="K87" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
-        <v>87.0</v>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>70</v>
@@ -3741,31 +4061,31 @@
       <c r="D88" t="s">
         <v>107</v>
       </c>
-      <c r="E88" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F88" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G88" t="n">
-        <v>43.0</v>
+      <c r="E88">
+        <v>21</v>
+      </c>
+      <c r="F88">
+        <v>237</v>
+      </c>
+      <c r="G88">
+        <v>43</v>
       </c>
       <c r="H88" t="s">
         <v>17</v>
       </c>
-      <c r="I88" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>6.0</v>
+      <c r="I88">
+        <v>25</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
       </c>
       <c r="K88" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
-        <v>88.0</v>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>70</v>
@@ -3776,31 +4096,31 @@
       <c r="D89" t="s">
         <v>108</v>
       </c>
-      <c r="E89" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F89" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G89" t="n">
-        <v>43.0</v>
+      <c r="E89">
+        <v>21</v>
+      </c>
+      <c r="F89">
+        <v>237</v>
+      </c>
+      <c r="G89">
+        <v>43</v>
       </c>
       <c r="H89" t="s">
         <v>17</v>
       </c>
-      <c r="I89" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>3.0</v>
+      <c r="I89">
+        <v>17</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
       </c>
       <c r="K89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>89.0</v>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>70</v>
@@ -3811,31 +4131,31 @@
       <c r="D90" t="s">
         <v>109</v>
       </c>
-      <c r="E90" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F90" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G90" t="n">
-        <v>43.0</v>
+      <c r="E90">
+        <v>21</v>
+      </c>
+      <c r="F90">
+        <v>237</v>
+      </c>
+      <c r="G90">
+        <v>43</v>
       </c>
       <c r="H90" t="s">
         <v>17</v>
       </c>
-      <c r="I90" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.0</v>
+      <c r="I90">
+        <v>8</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
       </c>
       <c r="K90" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
-        <v>90.0</v>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>70</v>
@@ -3846,31 +4166,31 @@
       <c r="D91" t="s">
         <v>110</v>
       </c>
-      <c r="E91" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F91" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.0</v>
+      <c r="E91">
+        <v>21</v>
+      </c>
+      <c r="F91">
+        <v>237</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
       </c>
-      <c r="I91" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.0</v>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
-        <v>91.0</v>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>70</v>
@@ -3881,31 +4201,31 @@
       <c r="D92" t="s">
         <v>111</v>
       </c>
-      <c r="E92" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="F92" t="n">
-        <v>237.0</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.0</v>
+      <c r="E92">
+        <v>21</v>
+      </c>
+      <c r="F92">
+        <v>237</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
       </c>
-      <c r="I92" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2.0</v>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
       </c>
       <c r="K92" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>92.0</v>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>112</v>
@@ -3916,31 +4236,31 @@
       <c r="D93" t="s">
         <v>114</v>
       </c>
-      <c r="E93" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F93" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="G93" t="n">
-        <v>9.0</v>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>37</v>
+      </c>
+      <c r="G93">
+        <v>9</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
-      <c r="I93" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>9.0</v>
+      <c r="I93">
+        <v>37</v>
+      </c>
+      <c r="J93">
+        <v>9</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
-        <v>93.0</v>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>115</v>
@@ -3951,31 +4271,31 @@
       <c r="D94" t="s">
         <v>117</v>
       </c>
-      <c r="E94" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F94" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G94" t="n">
-        <v>18.0</v>
+      <c r="E94">
+        <v>19</v>
+      </c>
+      <c r="F94">
+        <v>133</v>
+      </c>
+      <c r="G94">
+        <v>18</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
-      <c r="I94" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0</v>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
       </c>
       <c r="K94" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
-        <v>94.0</v>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>115</v>
@@ -3986,31 +4306,31 @@
       <c r="D95" t="s">
         <v>118</v>
       </c>
-      <c r="E95" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F95" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G95" t="n">
-        <v>18.0</v>
+      <c r="E95">
+        <v>19</v>
+      </c>
+      <c r="F95">
+        <v>133</v>
+      </c>
+      <c r="G95">
+        <v>18</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
       </c>
-      <c r="I95" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.0</v>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
       </c>
       <c r="K95" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
-        <v>95.0</v>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>115</v>
@@ -4021,31 +4341,31 @@
       <c r="D96" t="s">
         <v>119</v>
       </c>
-      <c r="E96" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F96" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G96" t="n">
-        <v>18.0</v>
+      <c r="E96">
+        <v>19</v>
+      </c>
+      <c r="F96">
+        <v>133</v>
+      </c>
+      <c r="G96">
+        <v>18</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
       </c>
-      <c r="I96" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.0</v>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
       </c>
       <c r="K96" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>96.0</v>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>115</v>
@@ -4056,31 +4376,31 @@
       <c r="D97" t="s">
         <v>120</v>
       </c>
-      <c r="E97" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F97" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G97" t="n">
-        <v>18.0</v>
+      <c r="E97">
+        <v>19</v>
+      </c>
+      <c r="F97">
+        <v>133</v>
+      </c>
+      <c r="G97">
+        <v>18</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
       </c>
-      <c r="I97" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0</v>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
-        <v>97.0</v>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>115</v>
@@ -4091,31 +4411,31 @@
       <c r="D98" t="s">
         <v>121</v>
       </c>
-      <c r="E98" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F98" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G98" t="n">
-        <v>18.0</v>
+      <c r="E98">
+        <v>19</v>
+      </c>
+      <c r="F98">
+        <v>133</v>
+      </c>
+      <c r="G98">
+        <v>18</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
       </c>
-      <c r="I98" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>4.0</v>
+      <c r="I98">
+        <v>14</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
       </c>
       <c r="K98" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
-        <v>98.0</v>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>115</v>
@@ -4126,31 +4446,31 @@
       <c r="D99" t="s">
         <v>122</v>
       </c>
-      <c r="E99" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F99" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G99" t="n">
-        <v>18.0</v>
+      <c r="E99">
+        <v>19</v>
+      </c>
+      <c r="F99">
+        <v>133</v>
+      </c>
+      <c r="G99">
+        <v>18</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
       </c>
-      <c r="I99" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>7.0</v>
+      <c r="I99">
+        <v>18</v>
+      </c>
+      <c r="J99">
+        <v>7</v>
       </c>
       <c r="K99" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
-        <v>99.0</v>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>115</v>
@@ -4161,31 +4481,31 @@
       <c r="D100" t="s">
         <v>123</v>
       </c>
-      <c r="E100" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>18.0</v>
+      <c r="E100">
+        <v>19</v>
+      </c>
+      <c r="F100">
+        <v>133</v>
+      </c>
+      <c r="G100">
+        <v>18</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
       </c>
-      <c r="I100" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.0</v>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
       </c>
       <c r="K100" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
-        <v>100.0</v>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>115</v>
@@ -4196,31 +4516,31 @@
       <c r="D101" t="s">
         <v>124</v>
       </c>
-      <c r="E101" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F101" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G101" t="n">
-        <v>18.0</v>
+      <c r="E101">
+        <v>19</v>
+      </c>
+      <c r="F101">
+        <v>133</v>
+      </c>
+      <c r="G101">
+        <v>18</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
       </c>
-      <c r="I101" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.0</v>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
       </c>
       <c r="K101" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
-        <v>101.0</v>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>115</v>
@@ -4231,31 +4551,31 @@
       <c r="D102" t="s">
         <v>125</v>
       </c>
-      <c r="E102" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F102" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G102" t="n">
-        <v>18.0</v>
+      <c r="E102">
+        <v>19</v>
+      </c>
+      <c r="F102">
+        <v>133</v>
+      </c>
+      <c r="G102">
+        <v>18</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
       </c>
-      <c r="I102" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.0</v>
+      <c r="I102">
+        <v>12</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
       </c>
       <c r="K102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
-        <v>102.0</v>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>115</v>
@@ -4266,31 +4586,31 @@
       <c r="D103" t="s">
         <v>126</v>
       </c>
-      <c r="E103" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F103" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G103" t="n">
-        <v>18.0</v>
+      <c r="E103">
+        <v>19</v>
+      </c>
+      <c r="F103">
+        <v>133</v>
+      </c>
+      <c r="G103">
+        <v>18</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
       </c>
-      <c r="I103" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.0</v>
+      <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
       </c>
       <c r="K103" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
-        <v>103.0</v>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>115</v>
@@ -4301,31 +4621,31 @@
       <c r="D104" t="s">
         <v>127</v>
       </c>
-      <c r="E104" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F104" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G104" t="n">
-        <v>18.0</v>
+      <c r="E104">
+        <v>19</v>
+      </c>
+      <c r="F104">
+        <v>133</v>
+      </c>
+      <c r="G104">
+        <v>18</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
-      <c r="I104" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.0</v>
+      <c r="I104">
+        <v>21</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
       </c>
       <c r="K104" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>104.0</v>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>115</v>
@@ -4336,31 +4656,31 @@
       <c r="D105" t="s">
         <v>128</v>
       </c>
-      <c r="E105" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G105" t="n">
-        <v>18.0</v>
+      <c r="E105">
+        <v>19</v>
+      </c>
+      <c r="F105">
+        <v>133</v>
+      </c>
+      <c r="G105">
+        <v>18</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
       </c>
-      <c r="I105" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.0</v>
+      <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
       </c>
       <c r="K105" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
-        <v>105.0</v>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>115</v>
@@ -4371,31 +4691,31 @@
       <c r="D106" t="s">
         <v>129</v>
       </c>
-      <c r="E106" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>18.0</v>
+      <c r="E106">
+        <v>19</v>
+      </c>
+      <c r="F106">
+        <v>133</v>
+      </c>
+      <c r="G106">
+        <v>18</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
       </c>
-      <c r="I106" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>2.0</v>
+      <c r="I106">
+        <v>8</v>
+      </c>
+      <c r="J106">
+        <v>2</v>
       </c>
       <c r="K106" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
-        <v>106.0</v>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>115</v>
@@ -4406,31 +4726,31 @@
       <c r="D107" t="s">
         <v>130</v>
       </c>
-      <c r="E107" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>18.0</v>
+      <c r="E107">
+        <v>19</v>
+      </c>
+      <c r="F107">
+        <v>133</v>
+      </c>
+      <c r="G107">
+        <v>18</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
       </c>
-      <c r="I107" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.0</v>
+      <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
       </c>
       <c r="K107" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
-        <v>107.0</v>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>115</v>
@@ -4441,31 +4761,31 @@
       <c r="D108" t="s">
         <v>131</v>
       </c>
-      <c r="E108" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>18.0</v>
+      <c r="E108">
+        <v>19</v>
+      </c>
+      <c r="F108">
+        <v>133</v>
+      </c>
+      <c r="G108">
+        <v>18</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
       </c>
-      <c r="I108" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>3.0</v>
+      <c r="I108">
+        <v>11</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
       </c>
       <c r="K108" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>108.0</v>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>115</v>
@@ -4476,31 +4796,31 @@
       <c r="D109" t="s">
         <v>132</v>
       </c>
-      <c r="E109" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>18.0</v>
+      <c r="E109">
+        <v>19</v>
+      </c>
+      <c r="F109">
+        <v>133</v>
+      </c>
+      <c r="G109">
+        <v>18</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
-      <c r="I109" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.0</v>
+      <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
       </c>
       <c r="K109" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
-        <v>109.0</v>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>115</v>
@@ -4511,31 +4831,31 @@
       <c r="D110" t="s">
         <v>133</v>
       </c>
-      <c r="E110" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>18.0</v>
+      <c r="E110">
+        <v>19</v>
+      </c>
+      <c r="F110">
+        <v>133</v>
+      </c>
+      <c r="G110">
+        <v>18</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
       </c>
-      <c r="I110" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>2.0</v>
+      <c r="I110">
+        <v>9</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
       </c>
       <c r="K110" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
-        <v>110.0</v>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>115</v>
@@ -4546,31 +4866,31 @@
       <c r="D111" t="s">
         <v>134</v>
       </c>
-      <c r="E111" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>18.0</v>
+      <c r="E111">
+        <v>19</v>
+      </c>
+      <c r="F111">
+        <v>133</v>
+      </c>
+      <c r="G111">
+        <v>18</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
       </c>
-      <c r="I111" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.0</v>
+      <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
       </c>
       <c r="K111" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
-        <v>111.0</v>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>115</v>
@@ -4581,31 +4901,31 @@
       <c r="D112" t="s">
         <v>135</v>
       </c>
-      <c r="E112" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>133.0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.0</v>
+      <c r="E112">
+        <v>19</v>
+      </c>
+      <c r="F112">
+        <v>133</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
       </c>
-      <c r="I112" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.0</v>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
       </c>
       <c r="K112" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
-        <v>112.0</v>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>115</v>
@@ -4616,31 +4936,31 @@
       <c r="D113" t="s">
         <v>137</v>
       </c>
-      <c r="E113" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.0</v>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>18</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
       </c>
-      <c r="I113" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.0</v>
+      <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
       </c>
       <c r="K113" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>113.0</v>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -4651,31 +4971,31 @@
       <c r="D114" t="s">
         <v>119</v>
       </c>
-      <c r="E114" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.0</v>
+      <c r="E114">
+        <v>5</v>
+      </c>
+      <c r="F114">
+        <v>18</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
       </c>
-      <c r="I114" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.0</v>
+      <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
       </c>
       <c r="K114" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
-        <v>114.0</v>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
@@ -4686,31 +5006,31 @@
       <c r="D115" t="s">
         <v>138</v>
       </c>
-      <c r="E115" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.0</v>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
       </c>
-      <c r="I115" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.0</v>
+      <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
       </c>
       <c r="K115" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>115.0</v>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>115</v>
@@ -4721,31 +5041,31 @@
       <c r="D116" t="s">
         <v>139</v>
       </c>
-      <c r="E116" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.0</v>
+      <c r="E116">
+        <v>5</v>
+      </c>
+      <c r="F116">
+        <v>18</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
       </c>
-      <c r="I116" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.0</v>
+      <c r="I116">
+        <v>4</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
       </c>
       <c r="K116" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
-        <v>116.0</v>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
@@ -4756,31 +5076,31 @@
       <c r="D117" t="s">
         <v>140</v>
       </c>
-      <c r="E117" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.0</v>
+      <c r="E117">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>18</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
       </c>
-      <c r="I117" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.0</v>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
       </c>
       <c r="K117" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
-        <v>117.0</v>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>141</v>
@@ -4791,31 +5111,31 @@
       <c r="D118" t="s">
         <v>143</v>
       </c>
-      <c r="E118" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="G118" t="n">
-        <v>9.0</v>
+      <c r="E118">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>47</v>
+      </c>
+      <c r="G118">
+        <v>9</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
       </c>
-      <c r="I118" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.0</v>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
       </c>
       <c r="K118" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
-        <v>118.0</v>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>141</v>
@@ -4826,31 +5146,31 @@
       <c r="D119" t="s">
         <v>144</v>
       </c>
-      <c r="E119" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>9.0</v>
+      <c r="E119">
+        <v>6</v>
+      </c>
+      <c r="F119">
+        <v>47</v>
+      </c>
+      <c r="G119">
+        <v>9</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
       </c>
-      <c r="I119" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.0</v>
+      <c r="I119">
+        <v>7</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
       </c>
       <c r="K119" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>119.0</v>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>141</v>
@@ -4861,31 +5181,31 @@
       <c r="D120" t="s">
         <v>145</v>
       </c>
-      <c r="E120" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="G120" t="n">
-        <v>9.0</v>
+      <c r="E120">
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <v>47</v>
+      </c>
+      <c r="G120">
+        <v>9</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
       </c>
-      <c r="I120" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.0</v>
+      <c r="I120">
+        <v>7</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
       </c>
       <c r="K120" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>120.0</v>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>141</v>
@@ -4896,31 +5216,31 @@
       <c r="D121" t="s">
         <v>146</v>
       </c>
-      <c r="E121" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="G121" t="n">
-        <v>9.0</v>
+      <c r="E121">
+        <v>6</v>
+      </c>
+      <c r="F121">
+        <v>47</v>
+      </c>
+      <c r="G121">
+        <v>9</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
       </c>
-      <c r="I121" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.0</v>
+      <c r="I121">
+        <v>8</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
       </c>
       <c r="K121" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>121.0</v>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>141</v>
@@ -4931,31 +5251,31 @@
       <c r="D122" t="s">
         <v>147</v>
       </c>
-      <c r="E122" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="G122" t="n">
-        <v>9.0</v>
+      <c r="E122">
+        <v>6</v>
+      </c>
+      <c r="F122">
+        <v>47</v>
+      </c>
+      <c r="G122">
+        <v>9</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
       </c>
-      <c r="I122" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.0</v>
+      <c r="I122">
+        <v>8</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
       </c>
       <c r="K122" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>122.0</v>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>141</v>
@@ -4966,31 +5286,31 @@
       <c r="D123" t="s">
         <v>148</v>
       </c>
-      <c r="E123" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F123" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="G123" t="n">
-        <v>9.0</v>
+      <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>47</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
       </c>
-      <c r="I123" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="J123" t="n">
-        <v>5.0</v>
+      <c r="I123">
+        <v>13</v>
+      </c>
+      <c r="J123">
+        <v>5</v>
       </c>
       <c r="K123" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>123.0</v>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>141</v>
@@ -5001,31 +5321,31 @@
       <c r="D124" t="s">
         <v>150</v>
       </c>
-      <c r="E124" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F124" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G124" t="n">
-        <v>3.0</v>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124">
+        <v>19</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
       </c>
-      <c r="I124" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.0</v>
+      <c r="I124">
+        <v>5</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
       </c>
       <c r="K124" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>124.0</v>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>141</v>
@@ -5036,31 +5356,31 @@
       <c r="D125" t="s">
         <v>151</v>
       </c>
-      <c r="E125" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F125" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G125" t="n">
-        <v>3.0</v>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125">
+        <v>19</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
       </c>
       <c r="H125" t="s">
         <v>14</v>
       </c>
-      <c r="I125" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J125" t="n">
-        <v>1.0</v>
+      <c r="I125">
+        <v>5</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
       </c>
       <c r="K125" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>125.0</v>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>141</v>
@@ -5071,31 +5391,31 @@
       <c r="D126" t="s">
         <v>152</v>
       </c>
-      <c r="E126" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F126" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G126" t="n">
-        <v>3.0</v>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>19</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
       </c>
       <c r="H126" t="s">
         <v>14</v>
       </c>
-      <c r="I126" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J126" t="n">
-        <v>1.0</v>
+      <c r="I126">
+        <v>6</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
       </c>
       <c r="K126" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>126.0</v>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>141</v>
@@ -5106,31 +5426,31 @@
       <c r="D127" t="s">
         <v>153</v>
       </c>
-      <c r="E127" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F127" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.0</v>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127">
+        <v>19</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
       </c>
       <c r="H127" t="s">
         <v>14</v>
       </c>
-      <c r="I127" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.0</v>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
       </c>
       <c r="K127" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>127.0</v>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>141</v>
@@ -5141,31 +5461,31 @@
       <c r="D128" t="s">
         <v>155</v>
       </c>
-      <c r="E128" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F128" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.0</v>
+      <c r="E128">
+        <v>5</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
       </c>
       <c r="H128" t="s">
         <v>14</v>
       </c>
-      <c r="I128" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.0</v>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
       </c>
       <c r="K128" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>128.0</v>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>141</v>
@@ -5176,31 +5496,31 @@
       <c r="D129" t="s">
         <v>156</v>
       </c>
-      <c r="E129" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F129" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.0</v>
+      <c r="E129">
+        <v>5</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
       </c>
       <c r="H129" t="s">
         <v>14</v>
       </c>
-      <c r="I129" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.0</v>
+      <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
       </c>
       <c r="K129" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>129.0</v>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>141</v>
@@ -5211,31 +5531,31 @@
       <c r="D130" t="s">
         <v>157</v>
       </c>
-      <c r="E130" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F130" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.0</v>
+      <c r="E130">
+        <v>5</v>
+      </c>
+      <c r="F130">
+        <v>16</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
       </c>
       <c r="H130" t="s">
         <v>14</v>
       </c>
-      <c r="I130" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.0</v>
+      <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
       </c>
       <c r="K130" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>130.0</v>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>141</v>
@@ -5246,31 +5566,31 @@
       <c r="D131" t="s">
         <v>158</v>
       </c>
-      <c r="E131" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F131" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.0</v>
+      <c r="E131">
+        <v>5</v>
+      </c>
+      <c r="F131">
+        <v>16</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
       </c>
       <c r="H131" t="s">
         <v>14</v>
       </c>
-      <c r="I131" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.0</v>
+      <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
       </c>
       <c r="K131" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>131.0</v>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>141</v>
@@ -5281,31 +5601,31 @@
       <c r="D132" t="s">
         <v>159</v>
       </c>
-      <c r="E132" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.0</v>
+      <c r="E132">
+        <v>5</v>
+      </c>
+      <c r="F132">
+        <v>16</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
       </c>
       <c r="H132" t="s">
         <v>14</v>
       </c>
-      <c r="I132" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.0</v>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
       </c>
       <c r="K132" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>132.0</v>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>141</v>
@@ -5316,31 +5636,31 @@
       <c r="D133" t="s">
         <v>134</v>
       </c>
-      <c r="E133" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.0</v>
+      <c r="E133">
+        <v>10</v>
+      </c>
+      <c r="F133">
+        <v>33</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
       </c>
       <c r="H133" t="s">
         <v>14</v>
       </c>
-      <c r="I133" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.0</v>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
       </c>
       <c r="K133" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>133.0</v>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>141</v>
@@ -5351,31 +5671,31 @@
       <c r="D134" t="s">
         <v>155</v>
       </c>
-      <c r="E134" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0</v>
+      <c r="E134">
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <v>33</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
       </c>
       <c r="H134" t="s">
         <v>14</v>
       </c>
-      <c r="I134" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.0</v>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
       </c>
       <c r="K134" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>134.0</v>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>141</v>
@@ -5386,31 +5706,31 @@
       <c r="D135" t="s">
         <v>157</v>
       </c>
-      <c r="E135" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0</v>
+      <c r="E135">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>33</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
       </c>
       <c r="H135" t="s">
         <v>14</v>
       </c>
-      <c r="I135" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0</v>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
       </c>
       <c r="K135" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>135.0</v>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>141</v>
@@ -5421,31 +5741,31 @@
       <c r="D136" t="s">
         <v>156</v>
       </c>
-      <c r="E136" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.0</v>
+      <c r="E136">
+        <v>10</v>
+      </c>
+      <c r="F136">
+        <v>33</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
       </c>
       <c r="H136" t="s">
         <v>14</v>
       </c>
-      <c r="I136" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.0</v>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
       </c>
       <c r="K136" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>136.0</v>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>141</v>
@@ -5456,31 +5776,31 @@
       <c r="D137" t="s">
         <v>158</v>
       </c>
-      <c r="E137" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.0</v>
+      <c r="E137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <v>33</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
       </c>
       <c r="H137" t="s">
         <v>14</v>
       </c>
-      <c r="I137" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.0</v>
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
       </c>
       <c r="K137" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>137.0</v>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>141</v>
@@ -5491,31 +5811,31 @@
       <c r="D138" t="s">
         <v>161</v>
       </c>
-      <c r="E138" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0</v>
+      <c r="E138">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>33</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
       </c>
       <c r="H138" t="s">
         <v>14</v>
       </c>
-      <c r="I138" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.0</v>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
       </c>
       <c r="K138" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>138.0</v>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>141</v>
@@ -5526,31 +5846,31 @@
       <c r="D139" t="s">
         <v>162</v>
       </c>
-      <c r="E139" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0</v>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>33</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
       </c>
       <c r="H139" t="s">
         <v>14</v>
       </c>
-      <c r="I139" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.0</v>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
       </c>
       <c r="K139" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>139.0</v>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -5561,31 +5881,31 @@
       <c r="D140" t="s">
         <v>163</v>
       </c>
-      <c r="E140" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0</v>
+      <c r="E140">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>33</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
       </c>
       <c r="H140" t="s">
         <v>14</v>
       </c>
-      <c r="I140" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.0</v>
+      <c r="I140">
+        <v>3</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
       </c>
       <c r="K140" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>140.0</v>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
@@ -5596,31 +5916,31 @@
       <c r="D141" t="s">
         <v>164</v>
       </c>
-      <c r="E141" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0</v>
+      <c r="E141">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>33</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
       </c>
       <c r="H141" t="s">
         <v>14</v>
       </c>
-      <c r="I141" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.0</v>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
       </c>
       <c r="K141" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>141.0</v>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>141</v>
@@ -5631,31 +5951,31 @@
       <c r="D142" t="s">
         <v>165</v>
       </c>
-      <c r="E142" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0</v>
+      <c r="E142">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>33</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
       </c>
       <c r="H142" t="s">
         <v>14</v>
       </c>
-      <c r="I142" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.0</v>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
       </c>
       <c r="K142" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>142.0</v>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>11</v>
@@ -5666,31 +5986,31 @@
       <c r="D143" t="s">
         <v>167</v>
       </c>
-      <c r="E143" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0</v>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
       </c>
       <c r="H143" t="s">
         <v>14</v>
       </c>
-      <c r="I143" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.0</v>
+      <c r="I143">
+        <v>5</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
       </c>
       <c r="K143" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>143.0</v>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
@@ -5701,31 +6021,31 @@
       <c r="D144" t="s">
         <v>18</v>
       </c>
-      <c r="E144" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.0</v>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
       </c>
       <c r="H144" t="s">
         <v>14</v>
       </c>
-      <c r="I144" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.0</v>
+      <c r="I144">
+        <v>5</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
       </c>
       <c r="K144" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>144.0</v>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
@@ -5736,31 +6056,31 @@
       <c r="D145" t="s">
         <v>19</v>
       </c>
-      <c r="E145" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0</v>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
       </c>
       <c r="H145" t="s">
         <v>14</v>
       </c>
-      <c r="I145" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.0</v>
+      <c r="I145">
+        <v>5</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
       </c>
       <c r="K145" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>145.0</v>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>70</v>
@@ -5771,31 +6091,31 @@
       <c r="D146" t="s">
         <v>167</v>
       </c>
-      <c r="E146" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F146" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0</v>
+      <c r="E146">
+        <v>6</v>
+      </c>
+      <c r="F146">
+        <v>32</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
       </c>
       <c r="H146" t="s">
         <v>14</v>
       </c>
-      <c r="I146" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.0</v>
+      <c r="I146">
+        <v>5</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
       </c>
       <c r="K146" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>146.0</v>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>70</v>
@@ -5806,31 +6126,31 @@
       <c r="D147" t="s">
         <v>169</v>
       </c>
-      <c r="E147" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F147" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0</v>
+      <c r="E147">
+        <v>6</v>
+      </c>
+      <c r="F147">
+        <v>32</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
       </c>
       <c r="H147" t="s">
         <v>14</v>
       </c>
-      <c r="I147" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.0</v>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
       </c>
       <c r="K147" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>147.0</v>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>70</v>
@@ -5841,31 +6161,31 @@
       <c r="D148" t="s">
         <v>170</v>
       </c>
-      <c r="E148" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.0</v>
+      <c r="E148">
+        <v>6</v>
+      </c>
+      <c r="F148">
+        <v>32</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
       </c>
       <c r="H148" t="s">
         <v>14</v>
       </c>
-      <c r="I148" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.0</v>
+      <c r="I148">
+        <v>5</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
       </c>
       <c r="K148" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>148.0</v>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>70</v>
@@ -5876,31 +6196,31 @@
       <c r="D149" t="s">
         <v>171</v>
       </c>
-      <c r="E149" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.0</v>
+      <c r="E149">
+        <v>6</v>
+      </c>
+      <c r="F149">
+        <v>32</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
       </c>
       <c r="H149" t="s">
         <v>14</v>
       </c>
-      <c r="I149" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.0</v>
+      <c r="I149">
+        <v>9</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
       </c>
       <c r="K149" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>149.0</v>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>70</v>
@@ -5911,31 +6231,31 @@
       <c r="D150" t="s">
         <v>172</v>
       </c>
-      <c r="E150" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0</v>
+      <c r="E150">
+        <v>6</v>
+      </c>
+      <c r="F150">
+        <v>32</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
       </c>
       <c r="H150" t="s">
         <v>14</v>
       </c>
-      <c r="I150" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.0</v>
+      <c r="I150">
+        <v>5</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
       </c>
       <c r="K150" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>150.0</v>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>70</v>
@@ -5946,31 +6266,31 @@
       <c r="D151" t="s">
         <v>173</v>
       </c>
-      <c r="E151" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.0</v>
+      <c r="E151">
+        <v>6</v>
+      </c>
+      <c r="F151">
+        <v>32</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
       </c>
       <c r="H151" t="s">
         <v>14</v>
       </c>
-      <c r="I151" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.0</v>
+      <c r="I151">
+        <v>6</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
       </c>
       <c r="K151" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>151.0</v>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>112</v>
@@ -5981,31 +6301,31 @@
       <c r="D152" t="s">
         <v>175</v>
       </c>
-      <c r="E152" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.0</v>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>15</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
       </c>
       <c r="H152" t="s">
         <v>14</v>
       </c>
-      <c r="I152" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.0</v>
+      <c r="I152">
+        <v>15</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
       </c>
       <c r="K152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>152.0</v>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>176</v>
@@ -6016,31 +6336,31 @@
       <c r="D153" t="s">
         <v>178</v>
       </c>
-      <c r="E153" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>3.0</v>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>31</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
       </c>
       <c r="H153" t="s">
         <v>14</v>
       </c>
-      <c r="I153" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2.0</v>
+      <c r="I153">
+        <v>16</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
       </c>
       <c r="K153" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>153.0</v>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>176</v>
@@ -6051,31 +6371,31 @@
       <c r="D154" t="s">
         <v>179</v>
       </c>
-      <c r="E154" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>3.0</v>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>31</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
       </c>
       <c r="H154" t="s">
         <v>14</v>
       </c>
-      <c r="I154" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>1.0</v>
+      <c r="I154">
+        <v>7</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
       </c>
       <c r="K154" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>154.0</v>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>176</v>
@@ -6086,31 +6406,31 @@
       <c r="D155" t="s">
         <v>32</v>
       </c>
-      <c r="E155" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>3.0</v>
+      <c r="E155">
+        <v>3</v>
+      </c>
+      <c r="F155">
+        <v>31</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
       </c>
       <c r="H155" t="s">
         <v>14</v>
       </c>
-      <c r="I155" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.0</v>
+      <c r="I155">
+        <v>8</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
       </c>
       <c r="K155" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>155.0</v>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>115</v>
@@ -6121,31 +6441,31 @@
       <c r="D156" t="s">
         <v>167</v>
       </c>
-      <c r="E156" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>6.0</v>
+      <c r="E156">
+        <v>13</v>
+      </c>
+      <c r="F156">
+        <v>103</v>
+      </c>
+      <c r="G156">
+        <v>6</v>
       </c>
       <c r="H156" t="s">
         <v>14</v>
       </c>
-      <c r="I156" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.0</v>
+      <c r="I156">
+        <v>10</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
       </c>
       <c r="K156" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>156.0</v>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>115</v>
@@ -6156,31 +6476,31 @@
       <c r="D157" t="s">
         <v>181</v>
       </c>
-      <c r="E157" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>6.0</v>
+      <c r="E157">
+        <v>13</v>
+      </c>
+      <c r="F157">
+        <v>103</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
       </c>
       <c r="H157" t="s">
         <v>14</v>
       </c>
-      <c r="I157" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>5.0</v>
+      <c r="I157">
+        <v>23</v>
+      </c>
+      <c r="J157">
+        <v>5</v>
       </c>
       <c r="K157" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>157.0</v>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>115</v>
@@ -6191,31 +6511,31 @@
       <c r="D158" t="s">
         <v>182</v>
       </c>
-      <c r="E158" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>6.0</v>
+      <c r="E158">
+        <v>13</v>
+      </c>
+      <c r="F158">
+        <v>103</v>
+      </c>
+      <c r="G158">
+        <v>6</v>
       </c>
       <c r="H158" t="s">
         <v>14</v>
       </c>
-      <c r="I158" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.0</v>
+      <c r="I158">
+        <v>3</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
       </c>
       <c r="K158" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>158.0</v>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>115</v>
@@ -6226,31 +6546,31 @@
       <c r="D159" t="s">
         <v>183</v>
       </c>
-      <c r="E159" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>6.0</v>
+      <c r="E159">
+        <v>13</v>
+      </c>
+      <c r="F159">
+        <v>103</v>
+      </c>
+      <c r="G159">
+        <v>6</v>
       </c>
       <c r="H159" t="s">
         <v>14</v>
       </c>
-      <c r="I159" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.0</v>
+      <c r="I159">
+        <v>3</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
       </c>
       <c r="K159" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>159.0</v>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>115</v>
@@ -6261,31 +6581,31 @@
       <c r="D160" t="s">
         <v>184</v>
       </c>
-      <c r="E160" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>6.0</v>
+      <c r="E160">
+        <v>13</v>
+      </c>
+      <c r="F160">
+        <v>103</v>
+      </c>
+      <c r="G160">
+        <v>6</v>
       </c>
       <c r="H160" t="s">
         <v>14</v>
       </c>
-      <c r="I160" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.0</v>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
       </c>
       <c r="K160" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>160.0</v>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>115</v>
@@ -6296,31 +6616,31 @@
       <c r="D161" t="s">
         <v>185</v>
       </c>
-      <c r="E161" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>6.0</v>
+      <c r="E161">
+        <v>13</v>
+      </c>
+      <c r="F161">
+        <v>103</v>
+      </c>
+      <c r="G161">
+        <v>6</v>
       </c>
       <c r="H161" t="s">
         <v>14</v>
       </c>
-      <c r="I161" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.0</v>
+      <c r="I161">
+        <v>3</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
       </c>
       <c r="K161" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>161.0</v>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>115</v>
@@ -6331,31 +6651,31 @@
       <c r="D162" t="s">
         <v>186</v>
       </c>
-      <c r="E162" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>6.0</v>
+      <c r="E162">
+        <v>13</v>
+      </c>
+      <c r="F162">
+        <v>103</v>
+      </c>
+      <c r="G162">
+        <v>6</v>
       </c>
       <c r="H162" t="s">
         <v>14</v>
       </c>
-      <c r="I162" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.0</v>
+      <c r="I162">
+        <v>3</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
       </c>
       <c r="K162" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>162.0</v>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>115</v>
@@ -6366,31 +6686,31 @@
       <c r="D163" t="s">
         <v>187</v>
       </c>
-      <c r="E163" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>6.0</v>
+      <c r="E163">
+        <v>13</v>
+      </c>
+      <c r="F163">
+        <v>103</v>
+      </c>
+      <c r="G163">
+        <v>6</v>
       </c>
       <c r="H163" t="s">
         <v>14</v>
       </c>
-      <c r="I163" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.0</v>
+      <c r="I163">
+        <v>4</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
       </c>
       <c r="K163" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>163.0</v>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>115</v>
@@ -6401,31 +6721,31 @@
       <c r="D164" t="s">
         <v>188</v>
       </c>
-      <c r="E164" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G164" t="n">
-        <v>6.0</v>
+      <c r="E164">
+        <v>13</v>
+      </c>
+      <c r="F164">
+        <v>103</v>
+      </c>
+      <c r="G164">
+        <v>6</v>
       </c>
       <c r="H164" t="s">
         <v>14</v>
       </c>
-      <c r="I164" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J164" t="n">
-        <v>1.0</v>
+      <c r="I164">
+        <v>20</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
       </c>
       <c r="K164" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>164.0</v>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>115</v>
@@ -6436,31 +6756,31 @@
       <c r="D165" t="s">
         <v>189</v>
       </c>
-      <c r="E165" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G165" t="n">
-        <v>6.0</v>
+      <c r="E165">
+        <v>13</v>
+      </c>
+      <c r="F165">
+        <v>103</v>
+      </c>
+      <c r="G165">
+        <v>6</v>
       </c>
       <c r="H165" t="s">
         <v>14</v>
       </c>
-      <c r="I165" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.0</v>
+      <c r="I165">
+        <v>4</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
       </c>
       <c r="K165" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>165.0</v>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>115</v>
@@ -6471,31 +6791,31 @@
       <c r="D166" t="s">
         <v>190</v>
       </c>
-      <c r="E166" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>6.0</v>
+      <c r="E166">
+        <v>13</v>
+      </c>
+      <c r="F166">
+        <v>103</v>
+      </c>
+      <c r="G166">
+        <v>6</v>
       </c>
       <c r="H166" t="s">
         <v>14</v>
       </c>
-      <c r="I166" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.0</v>
+      <c r="I166">
+        <v>6</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
       </c>
       <c r="K166" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>166.0</v>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>115</v>
@@ -6506,31 +6826,31 @@
       <c r="D167" t="s">
         <v>191</v>
       </c>
-      <c r="E167" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G167" t="n">
-        <v>6.0</v>
+      <c r="E167">
+        <v>13</v>
+      </c>
+      <c r="F167">
+        <v>103</v>
+      </c>
+      <c r="G167">
+        <v>6</v>
       </c>
       <c r="H167" t="s">
         <v>14</v>
       </c>
-      <c r="I167" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.0</v>
+      <c r="I167">
+        <v>10</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
       </c>
       <c r="K167" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>167.0</v>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>115</v>
@@ -6541,31 +6861,31 @@
       <c r="D168" t="s">
         <v>192</v>
       </c>
-      <c r="E168" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="G168" t="n">
-        <v>6.0</v>
+      <c r="E168">
+        <v>13</v>
+      </c>
+      <c r="F168">
+        <v>103</v>
+      </c>
+      <c r="G168">
+        <v>6</v>
       </c>
       <c r="H168" t="s">
         <v>14</v>
       </c>
-      <c r="I168" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.0</v>
+      <c r="I168">
+        <v>11</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
       </c>
       <c r="K168" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>168.0</v>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>141</v>
@@ -6576,31 +6896,31 @@
       <c r="D169" t="s">
         <v>194</v>
       </c>
-      <c r="E169" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.0</v>
+      <c r="E169">
+        <v>6</v>
+      </c>
+      <c r="F169">
+        <v>18</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
       </c>
       <c r="H169" t="s">
         <v>14</v>
       </c>
-      <c r="I169" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0.0</v>
+      <c r="I169">
+        <v>3</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
       </c>
       <c r="K169" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>169.0</v>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>141</v>
@@ -6611,31 +6931,31 @@
       <c r="D170" t="s">
         <v>195</v>
       </c>
-      <c r="E170" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.0</v>
+      <c r="E170">
+        <v>6</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
       </c>
       <c r="H170" t="s">
         <v>14</v>
       </c>
-      <c r="I170" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.0</v>
+      <c r="I170">
+        <v>3</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
       </c>
       <c r="K170" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>170.0</v>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>141</v>
@@ -6646,31 +6966,31 @@
       <c r="D171" t="s">
         <v>196</v>
       </c>
-      <c r="E171" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.0</v>
+      <c r="E171">
+        <v>6</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
       </c>
       <c r="H171" t="s">
         <v>14</v>
       </c>
-      <c r="I171" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0.0</v>
+      <c r="I171">
+        <v>3</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
       </c>
       <c r="K171" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>171.0</v>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>141</v>
@@ -6681,31 +7001,31 @@
       <c r="D172" t="s">
         <v>197</v>
       </c>
-      <c r="E172" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.0</v>
+      <c r="E172">
+        <v>6</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
       </c>
       <c r="H172" t="s">
         <v>14</v>
       </c>
-      <c r="I172" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0.0</v>
+      <c r="I172">
+        <v>3</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
       </c>
       <c r="K172" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>172.0</v>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>141</v>
@@ -6716,31 +7036,31 @@
       <c r="D173" t="s">
         <v>198</v>
       </c>
-      <c r="E173" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.0</v>
+      <c r="E173">
+        <v>6</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
       </c>
       <c r="H173" t="s">
         <v>14</v>
       </c>
-      <c r="I173" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0.0</v>
+      <c r="I173">
+        <v>3</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
       </c>
       <c r="K173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>173.0</v>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>141</v>
@@ -6751,31 +7071,31 @@
       <c r="D174" t="s">
         <v>199</v>
       </c>
-      <c r="E174" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.0</v>
+      <c r="E174">
+        <v>6</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
       </c>
       <c r="H174" t="s">
         <v>14</v>
       </c>
-      <c r="I174" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0.0</v>
+      <c r="I174">
+        <v>3</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
       </c>
       <c r="K174" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>174.0</v>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>141</v>
@@ -6786,31 +7106,31 @@
       <c r="D175" t="s">
         <v>169</v>
       </c>
-      <c r="E175" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.0</v>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>19</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
       </c>
       <c r="H175" t="s">
         <v>14</v>
       </c>
-      <c r="I175" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.0</v>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
       </c>
       <c r="K175" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>175.0</v>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>141</v>
@@ -6821,31 +7141,31 @@
       <c r="D176" t="s">
         <v>155</v>
       </c>
-      <c r="E176" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.0</v>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>19</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
       </c>
       <c r="H176" t="s">
         <v>14</v>
       </c>
-      <c r="I176" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.0</v>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
       </c>
       <c r="K176" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>176.0</v>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>141</v>
@@ -6856,31 +7176,31 @@
       <c r="D177" t="s">
         <v>156</v>
       </c>
-      <c r="E177" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.0</v>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>19</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
       </c>
       <c r="H177" t="s">
         <v>14</v>
       </c>
-      <c r="I177" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.0</v>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
       </c>
       <c r="K177" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177.0</v>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>141</v>
@@ -6891,31 +7211,31 @@
       <c r="D178" t="s">
         <v>201</v>
       </c>
-      <c r="E178" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.0</v>
+      <c r="E178">
+        <v>5</v>
+      </c>
+      <c r="F178">
+        <v>19</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
       </c>
       <c r="H178" t="s">
         <v>14</v>
       </c>
-      <c r="I178" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.0</v>
+      <c r="I178">
+        <v>5</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
       </c>
       <c r="K178" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178.0</v>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>141</v>
@@ -6926,31 +7246,31 @@
       <c r="D179" t="s">
         <v>202</v>
       </c>
-      <c r="E179" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.0</v>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179">
+        <v>19</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
       </c>
       <c r="H179" t="s">
         <v>14</v>
       </c>
-      <c r="I179" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.0</v>
+      <c r="I179">
+        <v>5</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
       </c>
       <c r="K179" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179.0</v>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>141</v>
@@ -6961,31 +7281,31 @@
       <c r="D180" t="s">
         <v>169</v>
       </c>
-      <c r="E180" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.0</v>
+      <c r="E180">
+        <v>10</v>
+      </c>
+      <c r="F180">
+        <v>39</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
       </c>
       <c r="H180" t="s">
         <v>14</v>
       </c>
-      <c r="I180" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.0</v>
+      <c r="I180">
+        <v>3</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
       </c>
       <c r="K180" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180.0</v>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>141</v>
@@ -6996,31 +7316,31 @@
       <c r="D181" t="s">
         <v>155</v>
       </c>
-      <c r="E181" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.0</v>
+      <c r="E181">
+        <v>10</v>
+      </c>
+      <c r="F181">
+        <v>39</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
       </c>
       <c r="H181" t="s">
         <v>14</v>
       </c>
-      <c r="I181" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.0</v>
+      <c r="I181">
+        <v>3</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
       </c>
       <c r="K181" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181.0</v>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>141</v>
@@ -7031,31 +7351,31 @@
       <c r="D182" t="s">
         <v>201</v>
       </c>
-      <c r="E182" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.0</v>
+      <c r="E182">
+        <v>10</v>
+      </c>
+      <c r="F182">
+        <v>39</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
       </c>
       <c r="H182" t="s">
         <v>14</v>
       </c>
-      <c r="I182" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.0</v>
+      <c r="I182">
+        <v>5</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
       </c>
       <c r="K182" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182.0</v>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>141</v>
@@ -7066,31 +7386,31 @@
       <c r="D183" t="s">
         <v>156</v>
       </c>
-      <c r="E183" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.0</v>
+      <c r="E183">
+        <v>10</v>
+      </c>
+      <c r="F183">
+        <v>39</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
       </c>
       <c r="H183" t="s">
         <v>14</v>
       </c>
-      <c r="I183" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.0</v>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
       </c>
       <c r="K183" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183.0</v>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>141</v>
@@ -7101,31 +7421,31 @@
       <c r="D184" t="s">
         <v>202</v>
       </c>
-      <c r="E184" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.0</v>
+      <c r="E184">
+        <v>10</v>
+      </c>
+      <c r="F184">
+        <v>39</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
       </c>
       <c r="H184" t="s">
         <v>14</v>
       </c>
-      <c r="I184" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.0</v>
+      <c r="I184">
+        <v>5</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
       </c>
       <c r="K184" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184.0</v>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>141</v>
@@ -7136,31 +7456,31 @@
       <c r="D185" t="s">
         <v>161</v>
       </c>
-      <c r="E185" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.0</v>
+      <c r="E185">
+        <v>10</v>
+      </c>
+      <c r="F185">
+        <v>39</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
       </c>
       <c r="H185" t="s">
         <v>14</v>
       </c>
-      <c r="I185" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.0</v>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
       </c>
       <c r="K185" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185.0</v>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>141</v>
@@ -7171,31 +7491,31 @@
       <c r="D186" t="s">
         <v>204</v>
       </c>
-      <c r="E186" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.0</v>
+      <c r="E186">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>39</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
       </c>
       <c r="H186" t="s">
         <v>14</v>
       </c>
-      <c r="I186" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.0</v>
+      <c r="I186">
+        <v>5</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
       </c>
       <c r="K186" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186.0</v>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>141</v>
@@ -7206,31 +7526,31 @@
       <c r="D187" t="s">
         <v>163</v>
       </c>
-      <c r="E187" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.0</v>
+      <c r="E187">
+        <v>10</v>
+      </c>
+      <c r="F187">
+        <v>39</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
       </c>
       <c r="H187" t="s">
         <v>14</v>
       </c>
-      <c r="I187" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0.0</v>
+      <c r="I187">
+        <v>3</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
       </c>
       <c r="K187" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187.0</v>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>141</v>
@@ -7241,31 +7561,31 @@
       <c r="D188" t="s">
         <v>205</v>
       </c>
-      <c r="E188" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.0</v>
+      <c r="E188">
+        <v>10</v>
+      </c>
+      <c r="F188">
+        <v>39</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
       </c>
       <c r="H188" t="s">
         <v>14</v>
       </c>
-      <c r="I188" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.0</v>
+      <c r="I188">
+        <v>5</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
       </c>
       <c r="K188" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188.0</v>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>141</v>
@@ -7276,29 +7596,29 @@
       <c r="D189" t="s">
         <v>206</v>
       </c>
-      <c r="E189" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.0</v>
+      <c r="E189">
+        <v>10</v>
+      </c>
+      <c r="F189">
+        <v>39</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
       </c>
       <c r="H189" t="s">
         <v>14</v>
       </c>
-      <c r="I189" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.0</v>
+      <c r="I189">
+        <v>4</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
       </c>
       <c r="K189" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>